--- a/data/usda carbon nitrogen data.xlsx
+++ b/data/usda carbon nitrogen data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RyanMeyer/Documents/R Projects/2023_nrec_decomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E8EA91-72AE-FC4B-AE3A-C64F19B92299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7930DFBE-CCD1-F44E-BE1E-AA172D68A536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,9 +80,6 @@
     <t>T19</t>
   </si>
   <si>
-    <t>T21</t>
-  </si>
-  <si>
     <t>T22</t>
   </si>
   <si>
@@ -1914,6 +1911,9 @@
   </si>
   <si>
     <t>T77</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -2777,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C663"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2790,13 +2790,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2966,7 +2966,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>626</v>
       </c>
       <c r="B17" s="1">
         <v>4.75</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1">
         <v>3.05</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>3.18</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1">
         <v>2.78</v>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
         <v>3.04</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
         <v>1.33</v>
@@ -3032,7 +3032,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>3.52</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
         <v>2.1</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1">
         <v>4.88</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>2.79</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>4.91</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>4.49</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>4.28</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>4.09</v>
@@ -3120,7 +3120,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1">
         <v>2.4900000000000002</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1">
         <v>4.3499999999999996</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1">
         <v>4.05</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1">
         <v>3.66</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1">
         <v>3.51</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1">
         <v>3.02</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1">
         <v>3.45</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1">
         <v>3.28</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1">
         <v>4.41</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1">
         <v>3.55</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42" s="1">
         <v>3.35</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1">
         <v>2.71</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="1">
         <v>3.76</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="1">
         <v>3.07</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1">
         <v>3.41</v>
@@ -3296,7 +3296,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1">
         <v>4.8899999999999997</v>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1">
         <v>2.97</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1">
         <v>3.78</v>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1">
         <v>3.34</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1">
         <v>3.96</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1">
         <v>3.43</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1">
         <v>4.17</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1">
         <v>4.7699999999999996</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B56" s="1">
         <v>2.4900000000000002</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57" s="1">
         <v>4.47</v>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="1">
         <v>2.88</v>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="1">
         <v>4</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1">
         <v>3.54</v>
@@ -3450,7 +3450,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B61" s="1">
         <v>3.83</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="1">
         <v>2.91</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="1">
         <v>3.2</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="1">
         <v>3.28</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="1">
         <v>3.56</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="1">
         <v>4.04</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1">
         <v>4.3</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="1">
         <v>2.68</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="1">
         <v>3.22</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1">
         <v>2.35</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" s="1">
         <v>2.17</v>
@@ -3571,7 +3571,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72" s="1">
         <v>3.81</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73" s="1">
         <v>3.27</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="1">
         <v>3.73</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="1">
         <v>4.3600000000000003</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1">
         <v>2.81</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" s="1">
         <v>3.74</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" s="1">
         <v>3.55</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="1">
         <v>3.83</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" s="1">
         <v>4.3099999999999996</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" s="1">
         <v>4.28</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83" s="1">
         <v>3.76</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84" s="1">
         <v>3.77</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85" s="1">
         <v>3.66</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86" s="1">
         <v>4.2</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" s="1">
         <v>3.6</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="1">
         <v>3.8</v>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89" s="1">
         <v>1.87</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" s="1">
         <v>3.46</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91" s="1">
         <v>4.54</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="1">
         <v>3.93</v>
@@ -3802,7 +3802,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="1">
         <v>3.86</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94" s="1">
         <v>3.78</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96" s="1">
         <v>3.39</v>
@@ -3846,7 +3846,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="1">
         <v>2.64</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98" s="1">
         <v>3.35</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99" s="1">
         <v>2.6</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100" s="1">
         <v>3.88</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" s="1">
         <v>2.83</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102" s="1">
         <v>2.92</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103" s="1">
         <v>2.1800000000000002</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104" s="1">
         <v>3.49</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105" s="1">
         <v>3.44</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106" s="1">
         <v>2.67</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107" s="1">
         <v>3.44</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108" s="1">
         <v>3.77</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109" s="1">
         <v>3.48</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110" s="1">
         <v>2.35</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111" s="1">
         <v>3.45</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112" s="1">
         <v>3.65</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B113" s="1">
         <v>3.09</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B114" s="1">
         <v>3.25</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115" s="1">
         <v>4.2699999999999996</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B117" s="1">
         <v>3.95</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B118" s="1">
         <v>4.1399999999999997</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B119" s="1">
         <v>4.1100000000000003</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B120" s="1">
         <v>2.98</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B121" s="1">
         <v>3.74</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B122" s="1">
         <v>4.26</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B123" s="1">
         <v>3.37</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B124" s="1">
         <v>3.56</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B125" s="1">
         <v>3.68</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B126" s="1">
         <v>2.96</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B127" s="1">
         <v>3.77</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B128" s="1">
         <v>3.58</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B129" s="1">
         <v>4.22</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B130" s="1">
         <v>3.66</v>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B131" s="1">
         <v>3.88</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B132" s="1">
         <v>3.58</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B133" s="1">
         <v>4.25</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B134" s="1">
         <v>3.72</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B135" s="1">
         <v>3.71</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B136" s="1">
         <v>1.86</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B138" s="1">
         <v>3.42</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B139" s="1">
         <v>2.0099999999999998</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B140" s="1">
         <v>3.85</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B141" s="1">
         <v>3.43</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B142" s="1">
         <v>3.83</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B143" s="1">
         <v>3.96</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B144" s="1">
         <v>3.67</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B145" s="1">
         <v>3.27</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B146" s="1">
         <v>2.97</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B147" s="1">
         <v>3.59</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B148" s="1">
         <v>5.36</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B149" s="1">
         <v>2.63</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B150" s="1">
         <v>3.71</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B151" s="1">
         <v>3.98</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B152" s="1">
         <v>4.34</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B153" s="1">
         <v>4.34</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B154" s="1">
         <v>4.95</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B155" s="1">
         <v>3.77</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B156" s="1">
         <v>2.72</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B157" s="1">
         <v>3.89</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B159" s="1">
         <v>2.73</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B160" s="1">
         <v>4.82</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B161" s="1">
         <v>4.03</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B162" s="1">
         <v>3.6</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B163" s="1">
         <v>3.75</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B164" s="1">
         <v>3.97</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B165" s="1">
         <v>3.78</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B166" s="1">
         <v>4.22</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B167" s="1">
         <v>5.68</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B168" s="1">
         <v>4.57</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B169" s="1">
         <v>3.84</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B170" s="1">
         <v>3.88</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B171" s="1">
         <v>4.67</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B172" s="1">
         <v>5.14</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B173" s="1">
         <v>4.1900000000000004</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B174" s="1">
         <v>4.4000000000000004</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B175" s="1">
         <v>3.2</v>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B176" s="1">
         <v>3.67</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B177" s="1">
         <v>3.91</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B179" s="1">
         <v>3.9</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B180" s="1">
         <v>3.63</v>
@@ -4770,7 +4770,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B181" s="1">
         <v>2.97</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B182" s="1">
         <v>2.99</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B183" s="1">
         <v>4.63</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B184" s="1">
         <v>3.51</v>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B185" s="1">
         <v>4.92</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B186" s="1">
         <v>4.18</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B187" s="1">
         <v>3.98</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B188" s="1">
         <v>4.4000000000000004</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B189" s="1">
         <v>3.67</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B190" s="1">
         <v>4.29</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B191" s="1">
         <v>3.78</v>
@@ -4891,7 +4891,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B192" s="1">
         <v>4.58</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B193" s="1">
         <v>2.4300000000000002</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B194" s="1">
         <v>3.74</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B195" s="1">
         <v>3.89</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B196" s="1">
         <v>4.8099999999999996</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B197" s="1">
         <v>5.01</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B198" s="1">
         <v>4.18</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B200" s="1">
         <v>4.84</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B201" s="1">
         <v>3.71</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B202" s="1">
         <v>3.83</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B203" s="1">
         <v>4.1500000000000004</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B204" s="1">
         <v>5.18</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B205" s="1">
         <v>4.95</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B206" s="1">
         <v>3.9</v>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B207" s="1">
         <v>3.87</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B208" s="1">
         <v>3.89</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B209" s="1">
         <v>1.81</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B210" s="1">
         <v>3.47</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B211" s="1">
         <v>3.69</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B212" s="1">
         <v>4.7699999999999996</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B213" s="1">
         <v>3.77</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B214" s="1">
         <v>3.44</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B215" s="1">
         <v>3.6</v>
@@ -5155,7 +5155,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B216" s="1">
         <v>5.18</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B217" s="1">
         <v>3.79</v>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B218" s="1">
         <v>3.25</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B220" s="1">
         <v>3.82</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B221" s="1">
         <v>3.25</v>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B222" s="1">
         <v>4.53</v>
@@ -5232,7 +5232,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B223" s="1">
         <v>3.01</v>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B224" s="1">
         <v>4.0599999999999996</v>
@@ -5254,7 +5254,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B225" s="1">
         <v>3.91</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B226" s="1">
         <v>3.87</v>
@@ -5276,7 +5276,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B227" s="1">
         <v>3.72</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B228" s="1">
         <v>3.36</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B229" s="1">
         <v>2.34</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B230" s="1">
         <v>3.68</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B231" s="1">
         <v>4.1900000000000004</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B232" s="1">
         <v>3.69</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B233" s="1">
         <v>3.79</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B234" s="1">
         <v>3.86</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B235" s="1">
         <v>3.8</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B236" s="1">
         <v>3.8</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B237" s="1">
         <v>4.08</v>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B238" s="1">
         <v>4.8</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B240" s="1">
         <v>3.25</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B241" s="1">
         <v>4.42</v>
@@ -5441,7 +5441,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B242" s="1">
         <v>5.01</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B243" s="1">
         <v>4.1500000000000004</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B244" s="1">
         <v>3.17</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B245" s="1">
         <v>4.49</v>
@@ -5485,7 +5485,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B246" s="1">
         <v>3.6</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B247" s="1">
         <v>4.99</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B248" s="1">
         <v>4.13</v>
@@ -5518,7 +5518,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B249" s="1">
         <v>4.53</v>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B250" s="1">
         <v>5.17</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B251" s="1">
         <v>4.7300000000000004</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B252" s="1">
         <v>4.75</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B253" s="1">
         <v>4.21</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B254" s="1">
         <v>3.92</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B255" s="1">
         <v>4.33</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B256" s="1">
         <v>3.85</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B257" s="1">
         <v>4.0599999999999996</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B258" s="1">
         <v>4.42</v>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B259" s="1">
         <v>3.83</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B261" s="1">
         <v>3.93</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B262" s="1">
         <v>5.29</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B263" s="1">
         <v>4.41</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B264" s="1">
         <v>3.95</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B265" s="1">
         <v>4.4000000000000004</v>
@@ -5705,7 +5705,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B266" s="1">
         <v>3.3</v>
@@ -5716,7 +5716,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B267" s="1">
         <v>3.8</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B268" s="1">
         <v>4.4800000000000004</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B269" s="1">
         <v>4.18</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B270" s="1">
         <v>3.47</v>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B271" s="1">
         <v>3.46</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B272" s="1">
         <v>3.7</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B273" s="1">
         <v>3.91</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B274" s="1">
         <v>4.03</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B275" s="1">
         <v>3.38</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B276" s="1">
         <v>5.27</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B277" s="1">
         <v>2.71</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B278" s="1">
         <v>4.51</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B279" s="1">
         <v>4.4000000000000004</v>
@@ -5859,7 +5859,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B280" s="1">
         <v>5.14</v>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B282" s="1">
         <v>4.04</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B283" s="1">
         <v>4.8600000000000003</v>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B284" s="1">
         <v>4.43</v>
@@ -5914,7 +5914,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B285" s="1">
         <v>4.53</v>
@@ -5925,7 +5925,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B286" s="1">
         <v>4.88</v>
@@ -5936,7 +5936,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B287" s="1">
         <v>5.03</v>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B288" s="1">
         <v>4.75</v>
@@ -5958,7 +5958,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B289" s="1">
         <v>2.4700000000000002</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B290" s="1">
         <v>3.17</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B291" s="1">
         <v>2.59</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B292" s="1">
         <v>2.4700000000000002</v>
@@ -6002,7 +6002,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B293" s="1">
         <v>2.67</v>
@@ -6013,7 +6013,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B294" s="1">
         <v>2.59</v>
@@ -6024,7 +6024,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B295" s="1">
         <v>2.31</v>
@@ -6035,7 +6035,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B296" s="1">
         <v>2.83</v>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B297" s="1">
         <v>2.5</v>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B298" s="1">
         <v>2.2000000000000002</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B299" s="1">
         <v>2.48</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B300" s="1">
         <v>1.65</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B301" s="1">
         <v>1.97</v>
@@ -6112,7 +6112,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B303" s="1">
         <v>2.95</v>
@@ -6123,7 +6123,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B304" s="1">
         <v>2.2000000000000002</v>
@@ -6134,7 +6134,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B305" s="1">
         <v>2.5499999999999998</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B306" s="1">
         <v>2.57</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B307" s="1">
         <v>1.44</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B308" s="1">
         <v>1.93</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B309" s="1">
         <v>1.7</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B310" s="1">
         <v>1.69</v>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B311" s="1">
         <v>1.7</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B312" s="1">
         <v>2.2799999999999998</v>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B313" s="1">
         <v>1.86</v>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B314" s="1">
         <v>1.96</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B315" s="1">
         <v>2.77</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B316" s="1">
         <v>2.4900000000000002</v>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B317" s="1">
         <v>2.58</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B318" s="1">
         <v>2.69</v>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B319" s="1">
         <v>2.61</v>
@@ -6299,7 +6299,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B320" s="1">
         <v>2.5099999999999998</v>
@@ -6310,7 +6310,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B321" s="1">
         <v>2.65</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B323" s="1">
         <v>2.64</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B324" s="1">
         <v>2.5499999999999998</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B325" s="1">
         <v>2.5299999999999998</v>
@@ -6365,7 +6365,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B326" s="1">
         <v>2.4900000000000002</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B327" s="1">
         <v>2.61</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B328" s="1">
         <v>2.61</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B329" s="1">
         <v>2.58</v>
@@ -6409,7 +6409,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B330" s="1">
         <v>2.0699999999999998</v>
@@ -6420,7 +6420,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B331" s="1">
         <v>2.37</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B332" s="1">
         <v>2.27</v>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B333" s="1">
         <v>2.29</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B334" s="1">
         <v>2</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B335" s="1">
         <v>2.5099999999999998</v>
@@ -6475,7 +6475,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B336" s="1">
         <v>1.64</v>
@@ -6486,7 +6486,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B337" s="1">
         <v>1.7</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B338" s="1">
         <v>2.02</v>
@@ -6508,7 +6508,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B339" s="1">
         <v>1.84</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B340" s="1">
         <v>1.98</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B341" s="1">
         <v>2.37</v>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B342" s="1">
         <v>2.0499999999999998</v>
@@ -6563,7 +6563,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B344" s="1">
         <v>2.78</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B345" s="1">
         <v>2.79</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B346" s="1">
         <v>3.06</v>
@@ -6596,7 +6596,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B347" s="1">
         <v>2.4900000000000002</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B348" s="1">
         <v>2.76</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B349" s="1">
         <v>3.13</v>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B350" s="1">
         <v>2.84</v>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B351" s="1">
         <v>2.2599999999999998</v>
@@ -6651,7 +6651,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B352" s="1">
         <v>2.59</v>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B353" s="1">
         <v>1.88</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B354" s="1">
         <v>2.5099999999999998</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B355" s="1">
         <v>2.2999999999999998</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B356" s="1">
         <v>2.0699999999999998</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B357" s="1">
         <v>2.4700000000000002</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B358" s="1">
         <v>2.6</v>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B359" s="1">
         <v>2.5299999999999998</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B360" s="1">
         <v>2.37</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B361" s="1">
         <v>2.71</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B362" s="1">
         <v>2.62</v>
@@ -6772,7 +6772,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B363" s="1">
         <v>2.9</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B365" s="1">
         <v>2.59</v>
@@ -6805,7 +6805,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B366" s="1">
         <v>2.48</v>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B367" s="1">
         <v>2.5499999999999998</v>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B368" s="1">
         <v>2.64</v>
@@ -6838,7 +6838,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B369" s="1">
         <v>2.41</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B370" s="1">
         <v>2.64</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B371" s="1">
         <v>2.19</v>
@@ -6871,7 +6871,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B372" s="1">
         <v>2.31</v>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B373" s="1">
         <v>2.34</v>
@@ -6893,7 +6893,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B374" s="1">
         <v>2.13</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B375" s="1">
         <v>2.06</v>
@@ -6915,7 +6915,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B376" s="1">
         <v>2.5499999999999998</v>
@@ -6926,7 +6926,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B377" s="1">
         <v>2.54</v>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B378" s="1">
         <v>2.61</v>
@@ -6948,7 +6948,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B379" s="1">
         <v>2.63</v>
@@ -6959,7 +6959,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B380" s="1">
         <v>2.4300000000000002</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B381" s="1">
         <v>2.31</v>
@@ -6981,7 +6981,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B382" s="1">
         <v>2.11</v>
@@ -6992,7 +6992,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B383" s="1">
         <v>2.5</v>
@@ -7014,7 +7014,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B385" s="1">
         <v>2.2200000000000002</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B386" s="1">
         <v>3.07</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B387" s="1">
         <v>2.48</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B388" s="1">
         <v>3.03</v>
@@ -7058,7 +7058,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B389" s="1">
         <v>2.95</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B390" s="1">
         <v>2.74</v>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B391" s="1">
         <v>2.79</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B392" s="1">
         <v>2.98</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B393" s="1">
         <v>3.08</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B394" s="1">
         <v>2.8</v>
@@ -7124,7 +7124,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B395" s="1">
         <v>2.77</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B396" s="1">
         <v>2.5499999999999998</v>
@@ -7146,7 +7146,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B397" s="1">
         <v>2.97</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B398" s="1">
         <v>3.09</v>
@@ -7168,7 +7168,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B399" s="1">
         <v>1.93</v>
@@ -7179,7 +7179,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B400" s="1">
         <v>2.0099999999999998</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B401" s="1">
         <v>1.85</v>
@@ -7201,7 +7201,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B402" s="1">
         <v>2.17</v>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B403" s="1">
         <v>1.95</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B404" s="1">
         <v>1.91</v>
@@ -7245,7 +7245,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B406" s="1">
         <v>1.82</v>
@@ -7256,7 +7256,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B407" s="1">
         <v>2.25</v>
@@ -7267,7 +7267,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B408" s="1">
         <v>2.5099999999999998</v>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B409" s="1">
         <v>2.89</v>
@@ -7289,7 +7289,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B410" s="1">
         <v>2.93</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B411" s="1">
         <v>2.93</v>
@@ -7311,7 +7311,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B412" s="1">
         <v>2.83</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B413" s="1">
         <v>2.88</v>
@@ -7333,7 +7333,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B414" s="1">
         <v>2.77</v>
@@ -7344,7 +7344,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B415" s="1">
         <v>2.61</v>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B416" s="1">
         <v>3.04</v>
@@ -7366,7 +7366,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B417" s="1">
         <v>2.88</v>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B418" s="1">
         <v>3.18</v>
@@ -7388,7 +7388,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B419" s="1">
         <v>3.13</v>
@@ -7399,7 +7399,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B420" s="1">
         <v>2.83</v>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B421" s="1">
         <v>3.3</v>
@@ -7421,7 +7421,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B422" s="1">
         <v>3.3</v>
@@ -7432,7 +7432,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B423" s="1">
         <v>2.89</v>
@@ -7443,7 +7443,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B424" s="1">
         <v>2.99</v>
@@ -7465,7 +7465,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B426" s="1">
         <v>2.9</v>
@@ -7476,7 +7476,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B427" s="1">
         <v>2.39</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B428" s="1">
         <v>2.5</v>
@@ -7498,7 +7498,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B429" s="1">
         <v>3.14</v>
@@ -7509,7 +7509,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B430" s="1">
         <v>2.84</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B431" s="1">
         <v>2.77</v>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B432" s="1">
         <v>2.4300000000000002</v>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B433" s="1">
         <v>2.3199999999999998</v>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B434" s="1">
         <v>2.31</v>
@@ -7564,7 +7564,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B435" s="1">
         <v>2.64</v>
@@ -7575,7 +7575,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B436" s="1">
         <v>1.82</v>
@@ -7586,7 +7586,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B437" s="1">
         <v>2.12</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B438" s="1">
         <v>2.5</v>
@@ -7608,7 +7608,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B439" s="1">
         <v>2.6</v>
@@ -7619,7 +7619,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B440" s="1">
         <v>2.5</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B441" s="1">
         <v>2.58</v>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B442" s="1">
         <v>2.95</v>
@@ -7652,7 +7652,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B443" s="1">
         <v>2.69</v>
@@ -7663,7 +7663,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B444" s="1">
         <v>3.25</v>
@@ -7674,7 +7674,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B445" s="1">
         <v>3.17</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B447" s="1">
         <v>3.03</v>
@@ -7707,7 +7707,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B448" s="1">
         <v>3.17</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B449" s="1">
         <v>3.44</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B450" s="1">
         <v>3.28</v>
@@ -7740,7 +7740,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B451" s="1">
         <v>2.95</v>
@@ -7751,7 +7751,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B452" s="1">
         <v>3.15</v>
@@ -7762,7 +7762,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B453" s="1">
         <v>2.37</v>
@@ -7773,7 +7773,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B454" s="1">
         <v>2.61</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B455" s="1">
         <v>2.5499999999999998</v>
@@ -7795,7 +7795,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B456" s="1">
         <v>2.84</v>
@@ -7806,7 +7806,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B457" s="1">
         <v>2.74</v>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B458" s="1">
         <v>2.84</v>
@@ -7828,7 +7828,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B459" s="1">
         <v>3.11</v>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B460" s="1">
         <v>2.85</v>
@@ -7850,7 +7850,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B461" s="1">
         <v>3.6</v>
@@ -7861,7 +7861,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B462" s="1">
         <v>3.2</v>
@@ -7872,7 +7872,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B463" s="1">
         <v>2.74</v>
@@ -7883,7 +7883,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B464" s="1">
         <v>2.2000000000000002</v>
@@ -7894,7 +7894,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B465" s="1">
         <v>2.21</v>
@@ -7905,7 +7905,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B466" s="1">
         <v>2.0699999999999998</v>
@@ -7927,7 +7927,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B468" s="1">
         <v>1.1100000000000001</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B469" s="1">
         <v>2.12</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B470" s="1">
         <v>3.38</v>
@@ -7960,7 +7960,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B471" s="1">
         <v>2.0499999999999998</v>
@@ -7971,7 +7971,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B472" s="1">
         <v>3.02</v>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B473" s="1">
         <v>3.02</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B474" s="1">
         <v>2.61</v>
@@ -8004,7 +8004,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B475" s="1">
         <v>3.09</v>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B476" s="1">
         <v>3.24</v>
@@ -8026,7 +8026,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B477" s="1">
         <v>2.87</v>
@@ -8037,7 +8037,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B478" s="1">
         <v>2.88</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B479" s="1">
         <v>3.09</v>
@@ -8059,7 +8059,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B480" s="1">
         <v>3.42</v>
@@ -8070,7 +8070,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B481" s="1">
         <v>2.08</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B482" s="1">
         <v>2.62</v>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B483" s="1">
         <v>2.36</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B484" s="1">
         <v>2.85</v>
@@ -8114,7 +8114,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B485" s="1">
         <v>2.96</v>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B486" s="1">
         <v>1.96</v>
@@ -8136,7 +8136,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B487" s="1">
         <v>2.4500000000000002</v>
@@ -8158,7 +8158,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B489" s="1">
         <v>2.1</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B490" s="1">
         <v>1.81</v>
@@ -8180,7 +8180,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B491" s="1">
         <v>2.7</v>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B492" s="1">
         <v>3.56</v>
@@ -8202,7 +8202,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B493" s="1">
         <v>3.91</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B494" s="1">
         <v>3.29</v>
@@ -8224,7 +8224,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B495" s="1">
         <v>3.57</v>
@@ -8235,7 +8235,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B496" s="1">
         <v>3.8</v>
@@ -8246,7 +8246,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B497" s="1">
         <v>4.16</v>
@@ -8257,7 +8257,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B498" s="1">
         <v>3.85</v>
@@ -8268,7 +8268,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B499" s="1">
         <v>3.84</v>
@@ -8279,7 +8279,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B500" s="1">
         <v>4.6500000000000004</v>
@@ -8290,7 +8290,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B501" s="1">
         <v>2.83</v>
@@ -8301,7 +8301,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B502" s="1">
         <v>2.7</v>
@@ -8312,7 +8312,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B503" s="1">
         <v>2.41</v>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B504" s="1">
         <v>2.48</v>
@@ -8334,7 +8334,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B505" s="1">
         <v>3.05</v>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B506" s="1">
         <v>2.75</v>
@@ -8356,7 +8356,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B507" s="1">
         <v>1.78</v>
@@ -8367,7 +8367,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B508" s="1">
         <v>2.4300000000000002</v>
@@ -8389,7 +8389,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B510" s="1">
         <v>2</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B511" s="1">
         <v>1.99</v>
@@ -8411,7 +8411,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B512" s="1">
         <v>2.19</v>
@@ -8422,7 +8422,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B513" s="1">
         <v>2.79</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B514" s="1">
         <v>2.89</v>
@@ -8444,7 +8444,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B515" s="1">
         <v>2.4</v>
@@ -8455,7 +8455,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B516" s="1">
         <v>2.12</v>
@@ -8466,7 +8466,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B517" s="1">
         <v>4.0199999999999996</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B518" s="1">
         <v>3.86</v>
@@ -8488,7 +8488,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B519" s="1">
         <v>4.13</v>
@@ -8499,7 +8499,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B520" s="1">
         <v>4</v>
@@ -8510,7 +8510,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B521" s="1">
         <v>4.43</v>
@@ -8521,7 +8521,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B522" s="1">
         <v>4.1500000000000004</v>
@@ -8532,7 +8532,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B523" s="1">
         <v>4.17</v>
@@ -8543,7 +8543,7 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B524" s="1">
         <v>4.38</v>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B525" s="1">
         <v>4.66</v>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B526" s="1">
         <v>3.21</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B527" s="1">
         <v>3</v>
@@ -8587,7 +8587,7 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B528" s="1">
         <v>3</v>
@@ -8598,7 +8598,7 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B529" s="1">
         <v>3.4</v>
@@ -8620,7 +8620,7 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B531" s="1">
         <v>3.42</v>
@@ -8631,7 +8631,7 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B532" s="1">
         <v>3.18</v>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B533" s="1">
         <v>2.41</v>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B534" s="1">
         <v>2.88</v>
@@ -8664,7 +8664,7 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B535" s="1">
         <v>2.94</v>
@@ -8675,7 +8675,7 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B536" s="1">
         <v>2.44</v>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B537" s="1">
         <v>2.69</v>
@@ -8697,7 +8697,7 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B538" s="1">
         <v>2.42</v>
@@ -8708,7 +8708,7 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B539" s="1">
         <v>3.13</v>
@@ -8719,7 +8719,7 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B540" s="1">
         <v>3.82</v>
@@ -8730,7 +8730,7 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B541" s="1">
         <v>3.23</v>
@@ -8741,7 +8741,7 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B542" s="1">
         <v>2.78</v>
@@ -8752,7 +8752,7 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B543" s="1">
         <v>2.83</v>
@@ -8763,7 +8763,7 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B544" s="1">
         <v>2.75</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B545" s="1">
         <v>2.23</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B546" s="1">
         <v>1.91</v>
@@ -8796,7 +8796,7 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B547" s="1">
         <v>2.06</v>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B548" s="1">
         <v>2.25</v>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B549" s="1">
         <v>1.83</v>
@@ -8829,7 +8829,7 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B550" s="1">
         <v>1.8</v>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B552" s="1">
         <v>2.2999999999999998</v>
@@ -8862,7 +8862,7 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B553" s="1">
         <v>1.92</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B554" s="1">
         <v>2.12</v>
@@ -8884,7 +8884,7 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B555" s="1">
         <v>4.12</v>
@@ -8895,7 +8895,7 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B556" s="1">
         <v>3.75</v>
@@ -8906,7 +8906,7 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B557" s="1">
         <v>3.77</v>
@@ -8917,7 +8917,7 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B558" s="1">
         <v>3.63</v>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B559" s="1">
         <v>4.05</v>
@@ -8939,7 +8939,7 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B560" s="1">
         <v>3.87</v>
@@ -8950,7 +8950,7 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B561" s="1">
         <v>3.85</v>
@@ -8961,7 +8961,7 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B562" s="1">
         <v>3.75</v>
@@ -8972,7 +8972,7 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B563" s="1">
         <v>4.1900000000000004</v>
@@ -8983,7 +8983,7 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B564" s="1">
         <v>3.84</v>
@@ -8994,7 +8994,7 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B565" s="1">
         <v>2.2599999999999998</v>
@@ -9005,7 +9005,7 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B566" s="1">
         <v>2.99</v>
@@ -9016,7 +9016,7 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B567" s="1">
         <v>2.68</v>
@@ -9027,7 +9027,7 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B568" s="1">
         <v>2.72</v>
@@ -9038,7 +9038,7 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B569" s="1">
         <v>2.9</v>
@@ -9049,7 +9049,7 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B570" s="1">
         <v>2.89</v>
@@ -9060,7 +9060,7 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B571" s="1">
         <v>2.73</v>
@@ -9082,7 +9082,7 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B573" s="1">
         <v>3.25</v>
@@ -9093,7 +9093,7 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B574" s="1">
         <v>2.69</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B575" s="1">
         <v>4.67</v>
@@ -9115,7 +9115,7 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B576" s="1">
         <v>4.88</v>
@@ -9126,7 +9126,7 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B577" s="1">
         <v>4.83</v>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B578" s="1">
         <v>5.31</v>
@@ -9148,7 +9148,7 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B579" s="1">
         <v>4.9000000000000004</v>
@@ -9159,7 +9159,7 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B580" s="1">
         <v>4.68</v>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B581" s="1">
         <v>4.59</v>
@@ -9181,7 +9181,7 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B582" s="1">
         <v>4.8099999999999996</v>
@@ -9192,7 +9192,7 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B583" s="1">
         <v>5.51</v>
@@ -9203,7 +9203,7 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B584" s="1">
         <v>5.27</v>
@@ -9214,7 +9214,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B585" s="1">
         <v>2.19</v>
@@ -9225,7 +9225,7 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B586" s="1">
         <v>1.78</v>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B587" s="1">
         <v>2.0499999999999998</v>
@@ -9247,7 +9247,7 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B588" s="1">
         <v>1.77</v>
@@ -9258,7 +9258,7 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B589" s="1">
         <v>1.84</v>
@@ -9269,7 +9269,7 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B590" s="1">
         <v>2.31</v>
@@ -9280,7 +9280,7 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B591" s="1">
         <v>1.04</v>
@@ -9291,7 +9291,7 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B592" s="1">
         <v>2.2200000000000002</v>
@@ -9313,7 +9313,7 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B594" s="1">
         <v>2.16</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B595" s="1">
         <v>2.71</v>
@@ -9335,7 +9335,7 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B596" s="1">
         <v>3.06</v>
@@ -9346,7 +9346,7 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B597" s="1">
         <v>2.91</v>
@@ -9357,7 +9357,7 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B598" s="1">
         <v>3.36</v>
@@ -9368,7 +9368,7 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B599" s="1">
         <v>2.2400000000000002</v>
@@ -9379,7 +9379,7 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B600" s="1">
         <v>1.41</v>
@@ -9390,7 +9390,7 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B601" s="1">
         <v>1.37</v>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B602" s="1">
         <v>2.25</v>
@@ -9412,7 +9412,7 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B603" s="1">
         <v>2.21</v>
@@ -9423,7 +9423,7 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B604" s="1">
         <v>2.09</v>
@@ -9434,7 +9434,7 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B605" s="1">
         <v>1.93</v>
@@ -9445,7 +9445,7 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B606" s="1">
         <v>2.0499999999999998</v>
@@ -9456,7 +9456,7 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B607" s="1">
         <v>2.59</v>
@@ -9467,7 +9467,7 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B608" s="1">
         <v>2.97</v>
@@ -9478,7 +9478,7 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B609" s="1">
         <v>2.5299999999999998</v>
@@ -9489,7 +9489,7 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B610" s="1">
         <v>2.8</v>
@@ -9500,7 +9500,7 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B611" s="1">
         <v>2.91</v>
@@ -9511,7 +9511,7 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B612" s="1">
         <v>2.71</v>
@@ -9522,7 +9522,7 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B613" s="1">
         <v>2.66</v>
@@ -9544,7 +9544,7 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B615" s="1">
         <v>3.08</v>
@@ -9555,7 +9555,7 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B616" s="1">
         <v>3.03</v>
@@ -9566,7 +9566,7 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B617" s="1">
         <v>2.84</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B618" s="1">
         <v>3.72</v>
@@ -9588,7 +9588,7 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B619" s="1">
         <v>2.06</v>
@@ -9599,7 +9599,7 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B620" s="1">
         <v>3.51</v>
@@ -9610,7 +9610,7 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B621" s="1">
         <v>3.34</v>
@@ -9621,7 +9621,7 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B622" s="1">
         <v>2.83</v>
@@ -9632,7 +9632,7 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B623" s="1">
         <v>3.82</v>
@@ -9643,7 +9643,7 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B624" s="1">
         <v>2.75</v>
@@ -9654,7 +9654,7 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B625" s="1">
         <v>4.49</v>
@@ -9665,7 +9665,7 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B626" s="1">
         <v>5.3</v>
@@ -9676,7 +9676,7 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B627" s="1">
         <v>5.17</v>
@@ -9687,7 +9687,7 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B628" s="1">
         <v>4.17</v>
@@ -9698,7 +9698,7 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B629" s="1">
         <v>5.22</v>
@@ -9709,7 +9709,7 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B630" s="1">
         <v>3.87</v>
@@ -9720,7 +9720,7 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B631" s="1">
         <v>4.32</v>
@@ -9731,7 +9731,7 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B632" s="1">
         <v>5.3</v>
@@ -9742,7 +9742,7 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B633" s="1">
         <v>3.85</v>
@@ -9753,7 +9753,7 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B634" s="1">
         <v>3.03</v>
@@ -9775,7 +9775,7 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B636" s="1">
         <v>4.16</v>
@@ -9786,7 +9786,7 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B637" s="1">
         <v>4.29</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B638" s="1">
         <v>2.59</v>
@@ -9808,7 +9808,7 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B639" s="1">
         <v>4</v>
@@ -9819,7 +9819,7 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B640" s="1">
         <v>3.64</v>
@@ -9830,7 +9830,7 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B641" s="1">
         <v>4.18</v>
@@ -9841,7 +9841,7 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B642" s="1">
         <v>0.498</v>
@@ -9852,7 +9852,7 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B643" s="1">
         <v>3.8</v>
@@ -9863,7 +9863,7 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B644" s="1">
         <v>2.93</v>
@@ -9874,7 +9874,7 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B645" s="1">
         <v>3.78</v>
@@ -9885,7 +9885,7 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B646" s="1">
         <v>2.7</v>
@@ -9896,7 +9896,7 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B647" s="1">
         <v>3.85</v>
@@ -9907,7 +9907,7 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B648" s="1">
         <v>2.71</v>
@@ -9918,7 +9918,7 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B649" s="1">
         <v>3.11</v>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B650" s="1">
         <v>2.5499999999999998</v>
@@ -9940,7 +9940,7 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B651" s="1">
         <v>3.21</v>
@@ -9951,7 +9951,7 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B652" s="1">
         <v>5.2</v>
@@ -9962,7 +9962,7 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B653" s="1">
         <v>4.63</v>
@@ -9984,7 +9984,7 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B655" s="1">
         <v>3.99</v>
@@ -9995,7 +9995,7 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B656" s="1">
         <v>3.56</v>
@@ -10225,6 +10225,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="12a57a94-3426-4524-8b8a-967e28c44898">
@@ -10232,15 +10241,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10262,6 +10262,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9A9C6-ADCA-4A9D-9664-66F791D896DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D94D4AE-9339-4823-A300-1929BA722A3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -10269,12 +10277,4 @@
     <ds:schemaRef ds:uri="12a57a94-3426-4524-8b8a-967e28c44898"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9A9C6-ADCA-4A9D-9664-66F791D896DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/usda carbon nitrogen data.xlsx
+++ b/data/usda carbon nitrogen data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RyanMeyer/Documents/R Projects/2023_nrec_decomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7930DFBE-CCD1-F44E-BE1E-AA172D68A536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4C986F-9C81-844D-8D18-21D5AC7744AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RG C&amp;N" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="666">
   <si>
     <t>d</t>
   </si>
@@ -1913,7 +1913,124 @@
     <t>T77</t>
   </si>
   <si>
-    <t>`</t>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F130</t>
+  </si>
+  <si>
+    <t>F166</t>
+  </si>
+  <si>
+    <t>T99</t>
+  </si>
+  <si>
+    <t>T131</t>
+  </si>
+  <si>
+    <t>T167</t>
+  </si>
+  <si>
+    <t>F349</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F136</t>
+  </si>
+  <si>
+    <t>T342</t>
+  </si>
+  <si>
+    <t>T37</t>
+  </si>
+  <si>
+    <t>T70</t>
+  </si>
+  <si>
+    <t>T142</t>
+  </si>
+  <si>
+    <t>F191</t>
+  </si>
+  <si>
+    <t>F148</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>T126</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>F259</t>
+  </si>
+  <si>
+    <t>F376</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F112</t>
+  </si>
+  <si>
+    <t>F151</t>
+  </si>
+  <si>
+    <t>T278</t>
+  </si>
+  <si>
+    <t>T86</t>
+  </si>
+  <si>
+    <t>T112</t>
+  </si>
+  <si>
+    <t>T152</t>
+  </si>
+  <si>
+    <t>F211</t>
+  </si>
+  <si>
+    <t>F305</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F186</t>
+  </si>
+  <si>
+    <t>T218</t>
+  </si>
+  <si>
+    <t>T107</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T561</t>
   </si>
 </sst>
 </file>
@@ -2240,7 +2357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2355,6 +2472,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2411,14 +2537,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2775,17 +2901,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C663"/>
+  <dimension ref="A1:C695"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A649" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F691" sqref="F691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="3"/>
-    <col min="2" max="2" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="9.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="2"/>
+    <col min="4" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -9993,46 +10121,445 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A656" s="3" t="s">
+    <row r="656" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="B656" s="1">
+      <c r="B656" s="5">
         <v>3.56</v>
       </c>
-      <c r="C656" s="2">
+      <c r="C656" s="6">
         <v>44.3</v>
       </c>
     </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A657" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B657" s="1">
+        <v>2.5274999999999999</v>
+      </c>
+      <c r="C657" s="2">
+        <v>41.9</v>
+      </c>
+    </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A658" s="5"/>
-      <c r="B658" s="4"/>
-      <c r="C658" s="6"/>
+      <c r="A658" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B658" s="1">
+        <v>2.5274999999999999</v>
+      </c>
+      <c r="C658" s="2">
+        <v>41.9</v>
+      </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A659" s="5"/>
-      <c r="B659" s="4"/>
-      <c r="C659" s="6"/>
+      <c r="A659" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B659" s="1">
+        <v>2.5274999999999999</v>
+      </c>
+      <c r="C659" s="2">
+        <v>41.9</v>
+      </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A660" s="5"/>
-      <c r="B660" s="4"/>
-      <c r="C660" s="6"/>
+      <c r="A660" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="B660" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="C660" s="2">
+        <v>49.024999999999999</v>
+      </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A661" s="5"/>
-      <c r="B661" s="4"/>
-      <c r="C661" s="6"/>
+      <c r="A661" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B661" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="C661" s="2">
+        <v>49.024999999999999</v>
+      </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A662" s="5"/>
-      <c r="B662" s="4"/>
-      <c r="C662" s="6"/>
+      <c r="A662" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="B662" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="C662" s="2">
+        <v>49.024999999999999</v>
+      </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A663" s="5"/>
-      <c r="B663" s="4"/>
-      <c r="C663" s="6"/>
+      <c r="A663" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="B663" s="1">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="C663" s="2">
+        <v>42.524999999999999</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A664" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B664" s="1">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="C664" s="2">
+        <v>42.524999999999999</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A665" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B665" s="1">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="C665" s="2">
+        <v>42.524999999999999</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A666" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B666" s="1">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="C666" s="2">
+        <v>42.524999999999999</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A667" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B667" s="1">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="C667" s="2">
+        <v>46.825000000000003</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A668" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B668" s="1">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="C668" s="2">
+        <v>46.825000000000003</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A669" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="B669" s="1">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="C669" s="2">
+        <v>46.825000000000003</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A670" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B670" s="1">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="C670" s="2">
+        <v>46.825000000000003</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A671" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B671" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="C671" s="2">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A672" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B672" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="C672" s="2">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A673" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B673" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="C673" s="2">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A674" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B674" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="C674" s="2">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A675" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B675" s="1">
+        <v>3.6074999999999999</v>
+      </c>
+      <c r="C675" s="2">
+        <v>47.375</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A676" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="B676" s="1">
+        <v>3.6074999999999999</v>
+      </c>
+      <c r="C676" s="2">
+        <v>47.375</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A677" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B677" s="1">
+        <v>2.665</v>
+      </c>
+      <c r="C677" s="2">
+        <v>43.15</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A678" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B678" s="1">
+        <v>2.665</v>
+      </c>
+      <c r="C678" s="2">
+        <v>43.15</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A679" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B679" s="1">
+        <v>2.665</v>
+      </c>
+      <c r="C679" s="2">
+        <v>43.15</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A680" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B680" s="1">
+        <v>2.665</v>
+      </c>
+      <c r="C680" s="2">
+        <v>43.15</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A681" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B681" s="1">
+        <v>2.665</v>
+      </c>
+      <c r="C681" s="2">
+        <v>43.15</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A682" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="B682" s="1">
+        <v>2.665</v>
+      </c>
+      <c r="C682" s="2">
+        <v>43.15</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A683" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B683" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="C683" s="2">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A684" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B684" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="C684" s="2">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A685" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B685" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="C685" s="2">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A686" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B686" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="C686" s="2">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A687" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="B687" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C687" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A688" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="B688" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C688" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A689" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="B689" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C689" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A690" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B690" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C690" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A691" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B691" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C691" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A692" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B692" s="1">
+        <v>4.1230000000000002</v>
+      </c>
+      <c r="C692" s="2">
+        <v>47.93</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B693" s="1">
+        <v>4.1230000000000002</v>
+      </c>
+      <c r="C693" s="2">
+        <v>47.93</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A694" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B694" s="1">
+        <v>4.1230000000000002</v>
+      </c>
+      <c r="C694" s="2">
+        <v>47.93</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A695" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B695" s="1">
+        <v>4.1230000000000002</v>
+      </c>
+      <c r="C695" s="2">
+        <v>47.93</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10041,6 +10568,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12a57a94-3426-4524-8b8a-967e28c44898">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010057E7F401722ED14286B30E4150AB2995" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b27f0e8a88c9b2ea8d7328e121d12dff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12a57a94-3426-4524-8b8a-967e28c44898" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5515aa80e411e665438ee9d45cfa022" ns2:_="">
     <xsd:import namespace="12a57a94-3426-4524-8b8a-967e28c44898"/>
@@ -10224,26 +10770,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D94D4AE-9339-4823-A300-1929BA722A3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12a57a94-3426-4524-8b8a-967e28c44898"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12a57a94-3426-4524-8b8a-967e28c44898">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9A9C6-ADCA-4A9D-9664-66F791D896DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4388CCBA-E123-432A-A7A5-E3E12CCDD724}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10259,22 +10804,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9A9C6-ADCA-4A9D-9664-66F791D896DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D94D4AE-9339-4823-A300-1929BA722A3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12a57a94-3426-4524-8b8a-967e28c44898"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/usda carbon nitrogen data.xlsx
+++ b/data/usda carbon nitrogen data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RyanMeyer/Documents/R Projects/2023_nrec_decomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4C986F-9C81-844D-8D18-21D5AC7744AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC28CC8-4C4D-7043-AE04-0CE130BDAAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22040" yWindow="0" windowWidth="22040" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RG C&amp;N" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="670">
   <si>
     <t>d</t>
   </si>
@@ -2031,6 +2031,18 @@
   </si>
   <si>
     <t>T561</t>
+  </si>
+  <si>
+    <t>F281</t>
+  </si>
+  <si>
+    <t>T288</t>
+  </si>
+  <si>
+    <t>F298</t>
+  </si>
+  <si>
+    <t>T291</t>
   </si>
 </sst>
 </file>
@@ -2526,7 +2538,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2544,6 +2556,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2901,11 +2916,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C695"/>
+  <dimension ref="A1:C699"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A649" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F691" sqref="F691"/>
+      <pane ySplit="1" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D692" sqref="D692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10133,8 +10148,8 @@
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A657" s="3" t="s">
-        <v>627</v>
+      <c r="A657" s="7" t="s">
+        <v>666</v>
       </c>
       <c r="B657" s="1">
         <v>2.5274999999999999</v>
@@ -10144,19 +10159,19 @@
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A658" s="3" t="s">
-        <v>628</v>
+      <c r="A658" s="7" t="s">
+        <v>667</v>
       </c>
       <c r="B658" s="1">
-        <v>2.5274999999999999</v>
+        <v>4.18</v>
       </c>
       <c r="C658" s="2">
-        <v>41.9</v>
+        <v>49.024999999999999</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B659" s="1">
         <v>2.5274999999999999</v>
@@ -10167,29 +10182,29 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B660" s="1">
-        <v>4.18</v>
+        <v>2.5274999999999999</v>
       </c>
       <c r="C660" s="2">
-        <v>49.024999999999999</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B661" s="1">
-        <v>4.18</v>
+        <v>2.5274999999999999</v>
       </c>
       <c r="C661" s="2">
-        <v>49.024999999999999</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B662" s="1">
         <v>4.18</v>
@@ -10200,29 +10215,29 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B663" s="1">
-        <v>1.9650000000000001</v>
+        <v>4.18</v>
       </c>
       <c r="C663" s="2">
-        <v>42.524999999999999</v>
+        <v>49.024999999999999</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B664" s="1">
-        <v>1.9650000000000001</v>
+        <v>4.18</v>
       </c>
       <c r="C664" s="2">
-        <v>42.524999999999999</v>
+        <v>49.024999999999999</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B665" s="1">
         <v>1.9650000000000001</v>
@@ -10233,7 +10248,7 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B666" s="1">
         <v>1.9650000000000001</v>
@@ -10244,29 +10259,29 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B667" s="1">
-        <v>3.4849999999999999</v>
+        <v>1.9650000000000001</v>
       </c>
       <c r="C667" s="2">
-        <v>46.825000000000003</v>
+        <v>42.524999999999999</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B668" s="1">
-        <v>3.4849999999999999</v>
+        <v>1.9650000000000001</v>
       </c>
       <c r="C668" s="2">
-        <v>46.825000000000003</v>
+        <v>42.524999999999999</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B669" s="1">
         <v>3.4849999999999999</v>
@@ -10277,7 +10292,7 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B670" s="1">
         <v>3.4849999999999999</v>
@@ -10288,29 +10303,29 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B671" s="1">
-        <v>4.25</v>
+        <v>3.4849999999999999</v>
       </c>
       <c r="C671" s="2">
-        <v>44.9</v>
+        <v>46.825000000000003</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B672" s="1">
-        <v>4.25</v>
+        <v>3.4849999999999999</v>
       </c>
       <c r="C672" s="2">
-        <v>44.9</v>
+        <v>46.825000000000003</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B673" s="1">
         <v>4.25</v>
@@ -10321,7 +10336,7 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B674" s="1">
         <v>4.25</v>
@@ -10332,51 +10347,51 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B675" s="1">
-        <v>3.6074999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="C675" s="2">
-        <v>47.375</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B676" s="1">
-        <v>3.6074999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="C676" s="2">
-        <v>47.375</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B677" s="1">
-        <v>2.665</v>
+        <v>3.6074999999999999</v>
       </c>
       <c r="C677" s="2">
-        <v>43.15</v>
+        <v>47.375</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B678" s="1">
-        <v>2.665</v>
+        <v>3.6074999999999999</v>
       </c>
       <c r="C678" s="2">
-        <v>43.15</v>
+        <v>47.375</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B679" s="1">
         <v>2.665</v>
@@ -10387,7 +10402,7 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B680" s="1">
         <v>2.665</v>
@@ -10398,7 +10413,7 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B681" s="1">
         <v>2.665</v>
@@ -10409,7 +10424,7 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B682" s="1">
         <v>2.665</v>
@@ -10420,29 +10435,29 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B683" s="1">
-        <v>3.97</v>
+        <v>2.665</v>
       </c>
       <c r="C683" s="2">
-        <v>46.8</v>
+        <v>43.15</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B684" s="1">
-        <v>3.97</v>
+        <v>2.665</v>
       </c>
       <c r="C684" s="2">
-        <v>46.8</v>
+        <v>43.15</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B685" s="1">
         <v>3.97</v>
@@ -10453,7 +10468,7 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B686" s="1">
         <v>3.97</v>
@@ -10464,29 +10479,29 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B687" s="1">
-        <v>2.2400000000000002</v>
+        <v>3.97</v>
       </c>
       <c r="C687" s="2">
-        <v>44</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B688" s="1">
-        <v>2.2400000000000002</v>
+        <v>3.97</v>
       </c>
       <c r="C688" s="2">
-        <v>44</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B689" s="1">
         <v>2.2400000000000002</v>
@@ -10497,7 +10512,7 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B690" s="1">
         <v>2.2400000000000002</v>
@@ -10508,7 +10523,7 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B691" s="1">
         <v>2.2400000000000002</v>
@@ -10519,45 +10534,89 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" s="3" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B692" s="1">
-        <v>4.1230000000000002</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C692" s="2">
-        <v>47.93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B693" s="1">
-        <v>4.1230000000000002</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C693" s="2">
-        <v>47.93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B694" s="1">
-        <v>4.1230000000000002</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C694" s="2">
-        <v>47.93</v>
+        <v>44</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B695" s="1">
         <v>4.1230000000000002</v>
       </c>
       <c r="C695" s="2">
+        <v>47.93</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A696" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B696" s="1">
+        <v>4.1230000000000002</v>
+      </c>
+      <c r="C696" s="2">
+        <v>47.93</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A697" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B697" s="1">
+        <v>4.1230000000000002</v>
+      </c>
+      <c r="C697" s="2">
+        <v>47.93</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A698" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B698" s="1">
+        <v>4.1230000000000002</v>
+      </c>
+      <c r="C698" s="2">
+        <v>47.93</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A699" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B699" s="1">
+        <v>4.1230000000000002</v>
+      </c>
+      <c r="C699" s="2">
         <v>47.93</v>
       </c>
     </row>
@@ -10568,25 +10627,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12a57a94-3426-4524-8b8a-967e28c44898">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010057E7F401722ED14286B30E4150AB2995" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b27f0e8a88c9b2ea8d7328e121d12dff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12a57a94-3426-4524-8b8a-967e28c44898" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5515aa80e411e665438ee9d45cfa022" ns2:_="">
     <xsd:import namespace="12a57a94-3426-4524-8b8a-967e28c44898"/>
@@ -10770,25 +10810,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D94D4AE-9339-4823-A300-1929BA722A3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12a57a94-3426-4524-8b8a-967e28c44898"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9A9C6-ADCA-4A9D-9664-66F791D896DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12a57a94-3426-4524-8b8a-967e28c44898">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4388CCBA-E123-432A-A7A5-E3E12CCDD724}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10804,4 +10845,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9A9C6-ADCA-4A9D-9664-66F791D896DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D94D4AE-9339-4823-A300-1929BA722A3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12a57a94-3426-4524-8b8a-967e28c44898"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/usda carbon nitrogen data.xlsx
+++ b/data/usda carbon nitrogen data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RyanMeyer/Documents/R Projects/2023_nrec_decomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC28CC8-4C4D-7043-AE04-0CE130BDAAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32407AD4-3CB9-9548-A0E8-B7460714B152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22040" yWindow="0" windowWidth="22040" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RG C&amp;N" sheetId="1" r:id="rId1"/>
@@ -2538,7 +2538,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2556,9 +2556,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2919,8 +2916,8 @@
   <dimension ref="A1:C699"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A682" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D692" sqref="D692"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4061,7 +4058,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="C103" s="2">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -10148,7 +10145,7 @@
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A657" s="7" t="s">
+      <c r="A657" s="3" t="s">
         <v>666</v>
       </c>
       <c r="B657" s="1">
@@ -10159,7 +10156,7 @@
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A658" s="7" t="s">
+      <c r="A658" s="3" t="s">
         <v>667</v>
       </c>
       <c r="B658" s="1">
@@ -10627,6 +10624,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12a57a94-3426-4524-8b8a-967e28c44898">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010057E7F401722ED14286B30E4150AB2995" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b27f0e8a88c9b2ea8d7328e121d12dff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12a57a94-3426-4524-8b8a-967e28c44898" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5515aa80e411e665438ee9d45cfa022" ns2:_="">
     <xsd:import namespace="12a57a94-3426-4524-8b8a-967e28c44898"/>
@@ -10810,26 +10826,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D94D4AE-9339-4823-A300-1929BA722A3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12a57a94-3426-4524-8b8a-967e28c44898"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12a57a94-3426-4524-8b8a-967e28c44898">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9A9C6-ADCA-4A9D-9664-66F791D896DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4388CCBA-E123-432A-A7A5-E3E12CCDD724}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10845,22 +10860,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9A9C6-ADCA-4A9D-9664-66F791D896DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D94D4AE-9339-4823-A300-1929BA722A3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12a57a94-3426-4524-8b8a-967e28c44898"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/usda carbon nitrogen data.xlsx
+++ b/data/usda carbon nitrogen data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RyanMeyer/Documents/R Projects/2023_nrec_decomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32407AD4-3CB9-9548-A0E8-B7460714B152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC621E-BC95-4246-80B1-F23507C96ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RG C&amp;N" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="670">
-  <si>
-    <t>d</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="669">
   <si>
     <t>T1</t>
   </si>
@@ -2913,11 +2910,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C699"/>
+  <dimension ref="A1:C667"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2930,18 +2927,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>4.62</v>
@@ -2952,7 +2949,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -2963,7 +2960,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>4.18</v>
@@ -2974,7 +2971,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>4.51</v>
@@ -2985,7 +2982,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>4.5199999999999996</v>
@@ -2996,7 +2993,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>3.96</v>
@@ -3007,7 +3004,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>4.3899999999999997</v>
@@ -3018,7 +3015,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>5.23</v>
@@ -3029,7 +3026,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>3.82</v>
@@ -3040,10 +3037,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="C11" s="2">
         <v>45.7</v>
@@ -3051,13 +3048,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>3.38</v>
+        <v>4.2</v>
       </c>
       <c r="C12" s="2">
-        <v>45.7</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3065,10 +3062,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>4.2</v>
+        <v>3.39</v>
       </c>
       <c r="C13" s="2">
-        <v>44.4</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3076,10 +3073,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>3.39</v>
+        <v>2.89</v>
       </c>
       <c r="C14" s="2">
-        <v>41.4</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -3087,32 +3084,32 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>2.89</v>
+        <v>4.09</v>
       </c>
       <c r="C15" s="2">
-        <v>30.2</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>625</v>
       </c>
       <c r="B16" s="1">
-        <v>4.09</v>
+        <v>4.75</v>
       </c>
       <c r="C16" s="2">
-        <v>41.9</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>626</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>4.75</v>
+        <v>3.05</v>
       </c>
       <c r="C17" s="2">
-        <v>44.7</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -3120,10 +3117,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>3.05</v>
+        <v>3.18</v>
       </c>
       <c r="C18" s="2">
-        <v>42.1</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3131,10 +3128,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>3.18</v>
+        <v>2.78</v>
       </c>
       <c r="C19" s="2">
-        <v>40.200000000000003</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3142,10 +3139,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>2.78</v>
+        <v>3.04</v>
       </c>
       <c r="C20" s="2">
-        <v>34.9</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3153,10 +3150,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="1">
-        <v>3.04</v>
+        <v>1.33</v>
       </c>
       <c r="C21" s="2">
-        <v>29.7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -3164,10 +3161,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>1.33</v>
+        <v>3.52</v>
       </c>
       <c r="C22" s="2">
-        <v>11</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -3175,10 +3172,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="1">
-        <v>3.52</v>
+        <v>2.1</v>
       </c>
       <c r="C23" s="2">
-        <v>37.4</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3186,10 +3183,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="1">
-        <v>2.1</v>
+        <v>4.88</v>
       </c>
       <c r="C24" s="2">
-        <v>21.3</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3197,10 +3194,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="1">
-        <v>4.88</v>
+        <v>2.79</v>
       </c>
       <c r="C25" s="2">
-        <v>46.3</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3208,10 +3205,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="1">
-        <v>2.79</v>
+        <v>4.91</v>
       </c>
       <c r="C26" s="2">
-        <v>35.1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -3219,10 +3216,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>4.91</v>
+        <v>4.49</v>
       </c>
       <c r="C27" s="2">
-        <v>47</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -3230,10 +3227,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>4.49</v>
+        <v>4.28</v>
       </c>
       <c r="C28" s="2">
-        <v>45.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -3241,10 +3238,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="1">
-        <v>4.28</v>
+        <v>4.09</v>
       </c>
       <c r="C29" s="2">
-        <v>48</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -3252,10 +3249,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>4.09</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C30" s="2">
-        <v>48.1</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -3263,10 +3260,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="1">
-        <v>2.4900000000000002</v>
+        <v>4.41</v>
       </c>
       <c r="C31" s="2">
-        <v>26.4</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -3274,2240 +3271,2240 @@
         <v>29</v>
       </c>
       <c r="B32" s="1">
-        <v>4.3499999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="C32" s="2">
-        <v>45</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1">
-        <v>4.46</v>
+        <v>3.66</v>
       </c>
       <c r="C33" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1">
-        <v>4.05</v>
+        <v>3.51</v>
       </c>
       <c r="C34" s="2">
-        <v>40.799999999999997</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1">
-        <v>3.66</v>
+        <v>3.02</v>
       </c>
       <c r="C35" s="2">
-        <v>46</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1">
-        <v>3.51</v>
+        <v>3.45</v>
       </c>
       <c r="C36" s="2">
-        <v>37.4</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1">
-        <v>3.02</v>
+        <v>3.28</v>
       </c>
       <c r="C37" s="2">
-        <v>31.4</v>
+        <v>35.799999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B38" s="1">
-        <v>3.45</v>
+        <v>4.41</v>
       </c>
       <c r="C38" s="2">
-        <v>37.799999999999997</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1">
-        <v>3.28</v>
+        <v>3.55</v>
       </c>
       <c r="C39" s="2">
-        <v>35.799999999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1">
-        <v>4.41</v>
+        <v>3.35</v>
       </c>
       <c r="C40" s="2">
-        <v>42.3</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1">
-        <v>3.55</v>
+        <v>2.71</v>
       </c>
       <c r="C41" s="2">
-        <v>47</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1">
-        <v>3.35</v>
+        <v>3.76</v>
       </c>
       <c r="C42" s="2">
-        <v>41.3</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1">
-        <v>2.71</v>
+        <v>3.07</v>
       </c>
       <c r="C43" s="2">
-        <v>27.7</v>
+        <v>36.299999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B44" s="1">
-        <v>3.76</v>
+        <v>3.41</v>
       </c>
       <c r="C44" s="2">
-        <v>46.7</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1">
-        <v>3.07</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="C45" s="2">
-        <v>36.299999999999997</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B46" s="1">
-        <v>3.41</v>
+        <v>2.97</v>
       </c>
       <c r="C46" s="2">
-        <v>36.9</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1">
-        <v>4.8899999999999997</v>
+        <v>3.78</v>
       </c>
       <c r="C47" s="2">
-        <v>46</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1">
-        <v>2.97</v>
+        <v>3.34</v>
       </c>
       <c r="C48" s="2">
-        <v>30.9</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1">
-        <v>3.78</v>
+        <v>3.96</v>
       </c>
       <c r="C49" s="2">
-        <v>46.5</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1">
-        <v>3.34</v>
+        <v>3.43</v>
       </c>
       <c r="C50" s="2">
-        <v>41.9</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" s="1">
-        <v>3.96</v>
+        <v>4.2</v>
       </c>
       <c r="C51" s="2">
-        <v>48.5</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1">
-        <v>3.43</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C52" s="2">
-        <v>39.5</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B53" s="1">
-        <v>4.17</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C53" s="2">
-        <v>44.7</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1">
-        <v>4.2300000000000004</v>
+        <v>4.47</v>
       </c>
       <c r="C54" s="2">
-        <v>44.7</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B55" s="1">
-        <v>4.7699999999999996</v>
+        <v>2.88</v>
       </c>
       <c r="C55" s="2">
-        <v>44.4</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1">
-        <v>2.4900000000000002</v>
+        <v>4</v>
       </c>
       <c r="C56" s="2">
-        <v>25.9</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1">
-        <v>4.47</v>
+        <v>3.54</v>
       </c>
       <c r="C57" s="2">
-        <v>47.4</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>53</v>
+        <v>624</v>
       </c>
       <c r="B58" s="1">
-        <v>2.88</v>
+        <v>3.83</v>
       </c>
       <c r="C58" s="2">
-        <v>30.4</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59" s="1">
-        <v>4</v>
+        <v>2.91</v>
       </c>
       <c r="C59" s="2">
-        <v>38.700000000000003</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
       <c r="C60" s="2">
-        <v>40.200000000000003</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>625</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1">
-        <v>3.83</v>
+        <v>3.28</v>
       </c>
       <c r="C61" s="2">
-        <v>42.6</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1">
-        <v>2.91</v>
+        <v>3.56</v>
       </c>
       <c r="C62" s="2">
-        <v>29.5</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1">
-        <v>3.2</v>
+        <v>4.04</v>
       </c>
       <c r="C63" s="2">
-        <v>33.799999999999997</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1">
-        <v>3.28</v>
+        <v>4.3</v>
       </c>
       <c r="C64" s="2">
-        <v>38.9</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1">
-        <v>3.56</v>
+        <v>2.68</v>
       </c>
       <c r="C65" s="2">
-        <v>45.8</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1">
-        <v>4.04</v>
+        <v>3.22</v>
       </c>
       <c r="C66" s="2">
-        <v>43.7</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1">
-        <v>4.3</v>
+        <v>2.35</v>
       </c>
       <c r="C67" s="2">
-        <v>43.9</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1">
-        <v>2.68</v>
+        <v>2.17</v>
       </c>
       <c r="C68" s="2">
-        <v>28.1</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1">
-        <v>3.22</v>
+        <v>3.81</v>
       </c>
       <c r="C69" s="2">
-        <v>37.9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
       <c r="C70" s="2">
-        <v>32.200000000000003</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B71" s="1">
-        <v>2.17</v>
+        <v>3.73</v>
       </c>
       <c r="C71" s="2">
-        <v>24.5</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1">
-        <v>3.81</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="C72" s="2">
-        <v>48</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1">
-        <v>3.27</v>
+        <v>2.81</v>
       </c>
       <c r="C73" s="2">
-        <v>40.4</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1">
-        <v>3.32</v>
+        <v>3.74</v>
       </c>
       <c r="C74" s="2">
-        <v>40.200000000000003</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B75" s="1">
-        <v>3.73</v>
+        <v>3.55</v>
       </c>
       <c r="C75" s="2">
-        <v>46.4</v>
+        <v>39.200000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1">
-        <v>4.3600000000000003</v>
+        <v>3.83</v>
       </c>
       <c r="C76" s="2">
-        <v>43.5</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1">
-        <v>2.81</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="C77" s="2">
-        <v>29.5</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B78" s="1">
-        <v>3.74</v>
+        <v>4.28</v>
       </c>
       <c r="C78" s="2">
-        <v>33.4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1">
-        <v>3.55</v>
+        <v>3.76</v>
       </c>
       <c r="C79" s="2">
-        <v>39.200000000000003</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B80" s="1">
-        <v>3.83</v>
+        <v>3.77</v>
       </c>
       <c r="C80" s="2">
-        <v>38.4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B81" s="1">
-        <v>4.3099999999999996</v>
+        <v>3.66</v>
       </c>
       <c r="C81" s="2">
-        <v>42.2</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B82" s="1">
-        <v>4.28</v>
+        <v>4.2</v>
       </c>
       <c r="C82" s="2">
-        <v>41</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1">
-        <v>3.76</v>
+        <v>3.6</v>
       </c>
       <c r="C83" s="2">
-        <v>40.799999999999997</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1">
-        <v>3.77</v>
+        <v>3.8</v>
       </c>
       <c r="C84" s="2">
-        <v>46</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B85" s="1">
-        <v>3.66</v>
+        <v>1.87</v>
       </c>
       <c r="C85" s="2">
-        <v>36.200000000000003</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B86" s="1">
-        <v>4.2</v>
+        <v>3.46</v>
       </c>
       <c r="C86" s="2">
-        <v>43.9</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B87" s="1">
-        <v>3.6</v>
+        <v>4.54</v>
       </c>
       <c r="C87" s="2">
-        <v>45.3</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B88" s="1">
-        <v>3.8</v>
+        <v>3.93</v>
       </c>
       <c r="C88" s="2">
-        <v>48.9</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B89" s="1">
-        <v>1.87</v>
+        <v>3.86</v>
       </c>
       <c r="C89" s="2">
-        <v>9.3800000000000008</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B90" s="1">
-        <v>3.46</v>
+        <v>3.85</v>
       </c>
       <c r="C90" s="2">
-        <v>38.299999999999997</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B91" s="1">
-        <v>4.54</v>
+        <v>3.39</v>
       </c>
       <c r="C91" s="2">
-        <v>45.1</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B92" s="1">
-        <v>3.93</v>
+        <v>2.64</v>
       </c>
       <c r="C92" s="2">
-        <v>39.299999999999997</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B93" s="1">
-        <v>3.86</v>
+        <v>3.35</v>
       </c>
       <c r="C93" s="2">
-        <v>47.4</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B94" s="1">
-        <v>3.78</v>
+        <v>2.6</v>
       </c>
       <c r="C94" s="2">
-        <v>35.200000000000003</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B95" s="1">
-        <v>3.92</v>
+        <v>3.88</v>
       </c>
       <c r="C95" s="2">
-        <v>36</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B96" s="1">
-        <v>3.39</v>
+        <v>2.83</v>
       </c>
       <c r="C96" s="2">
-        <v>31.3</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B97" s="1">
-        <v>2.64</v>
+        <v>2.92</v>
       </c>
       <c r="C97" s="2">
-        <v>32</v>
+        <v>32.299999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B98" s="1">
-        <v>3.35</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="C98" s="2">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B99" s="1">
-        <v>2.6</v>
+        <v>3.49</v>
       </c>
       <c r="C99" s="2">
-        <v>31.8</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B100" s="1">
-        <v>3.88</v>
+        <v>3.44</v>
       </c>
       <c r="C100" s="2">
-        <v>36.1</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B101" s="1">
-        <v>2.83</v>
+        <v>2.67</v>
       </c>
       <c r="C101" s="2">
-        <v>35.700000000000003</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B102" s="1">
-        <v>2.92</v>
+        <v>3.44</v>
       </c>
       <c r="C102" s="2">
-        <v>32.299999999999997</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B103" s="1">
-        <v>2.1800000000000002</v>
+        <v>3.77</v>
       </c>
       <c r="C103" s="2">
-        <v>41</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B104" s="1">
-        <v>3.49</v>
+        <v>3.48</v>
       </c>
       <c r="C104" s="2">
-        <v>44.6</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B105" s="1">
-        <v>3.44</v>
+        <v>2.35</v>
       </c>
       <c r="C105" s="2">
-        <v>43.4</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B106" s="1">
-        <v>2.67</v>
+        <v>3.45</v>
       </c>
       <c r="C106" s="2">
-        <v>29.5</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B107" s="1">
-        <v>3.44</v>
+        <v>3.65</v>
       </c>
       <c r="C107" s="2">
-        <v>33.799999999999997</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B108" s="1">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="C108" s="2">
-        <v>39.299999999999997</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B109" s="1">
-        <v>3.48</v>
+        <v>3.25</v>
       </c>
       <c r="C109" s="2">
-        <v>46.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B110" s="1">
-        <v>2.35</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C110" s="2">
-        <v>22.7</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B111" s="1">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="C111" s="2">
-        <v>39.299999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B112" s="1">
-        <v>3.65</v>
+        <v>4.1399999999999997</v>
       </c>
       <c r="C112" s="2">
-        <v>44.2</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B113" s="1">
-        <v>3.09</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="C113" s="2">
-        <v>31.9</v>
+        <v>44.6</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B114" s="1">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="C114" s="2">
-        <v>34.5</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B115" s="1">
-        <v>4.2699999999999996</v>
+        <v>3.74</v>
       </c>
       <c r="C115" s="2">
-        <v>41.4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="B116" s="1">
-        <v>3.92</v>
+        <v>4.26</v>
       </c>
       <c r="C116" s="2">
-        <v>38.200000000000003</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B117" s="1">
-        <v>3.95</v>
+        <v>3.37</v>
       </c>
       <c r="C117" s="2">
-        <v>40</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B118" s="1">
-        <v>4.1399999999999997</v>
+        <v>3.56</v>
       </c>
       <c r="C118" s="2">
-        <v>42.4</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B119" s="1">
-        <v>4.1100000000000003</v>
+        <v>3.68</v>
       </c>
       <c r="C119" s="2">
-        <v>44.6</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B120" s="1">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="C120" s="2">
-        <v>32.1</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B121" s="1">
-        <v>3.74</v>
+        <v>3.77</v>
       </c>
       <c r="C121" s="2">
-        <v>48</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B122" s="1">
-        <v>4.26</v>
+        <v>3.58</v>
       </c>
       <c r="C122" s="2">
-        <v>47.5</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B123" s="1">
-        <v>3.37</v>
+        <v>4.22</v>
       </c>
       <c r="C123" s="2">
-        <v>45.5</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B124" s="1">
-        <v>3.56</v>
+        <v>3.66</v>
       </c>
       <c r="C124" s="2">
-        <v>45.7</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B125" s="1">
-        <v>3.68</v>
+        <v>3.88</v>
       </c>
       <c r="C125" s="2">
-        <v>42.9</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B126" s="1">
-        <v>2.96</v>
+        <v>3.58</v>
       </c>
       <c r="C126" s="2">
-        <v>27.7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B127" s="1">
-        <v>3.77</v>
+        <v>4.25</v>
       </c>
       <c r="C127" s="2">
-        <v>37.700000000000003</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B128" s="1">
-        <v>3.58</v>
+        <v>3.72</v>
       </c>
       <c r="C128" s="2">
-        <v>33.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B129" s="1">
-        <v>4.22</v>
+        <v>3.71</v>
       </c>
       <c r="C129" s="2">
-        <v>43.2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B130" s="1">
-        <v>3.66</v>
+        <v>1.9</v>
       </c>
       <c r="C130" s="2">
-        <v>46.9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B131" s="1">
-        <v>3.88</v>
+        <v>3.42</v>
       </c>
       <c r="C131" s="2">
-        <v>39.299999999999997</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B132" s="1">
-        <v>3.58</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="C132" s="2">
-        <v>46</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B133" s="1">
-        <v>4.25</v>
+        <v>3.85</v>
       </c>
       <c r="C133" s="2">
-        <v>43.7</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B134" s="1">
-        <v>3.72</v>
+        <v>3.43</v>
       </c>
       <c r="C134" s="2">
-        <v>40</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B135" s="1">
-        <v>3.71</v>
+        <v>3.83</v>
       </c>
       <c r="C135" s="2">
-        <v>45</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B136" s="1">
-        <v>1.86</v>
+        <v>3.96</v>
       </c>
       <c r="C136" s="2">
-        <v>18.3</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="B137" s="1">
-        <v>1.94</v>
+        <v>3.67</v>
       </c>
       <c r="C137" s="2">
-        <v>19.600000000000001</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B138" s="1">
-        <v>3.42</v>
+        <v>3.27</v>
       </c>
       <c r="C138" s="2">
-        <v>38.9</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B139" s="1">
-        <v>2.0099999999999998</v>
+        <v>2.97</v>
       </c>
       <c r="C139" s="2">
-        <v>21.2</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B140" s="1">
-        <v>3.85</v>
+        <v>3.59</v>
       </c>
       <c r="C140" s="2">
-        <v>46.2</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B141" s="1">
-        <v>3.43</v>
+        <v>5.36</v>
       </c>
       <c r="C141" s="2">
-        <v>33.5</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B142" s="1">
-        <v>3.83</v>
+        <v>2.63</v>
       </c>
       <c r="C142" s="2">
-        <v>42.8</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B143" s="1">
-        <v>3.96</v>
+        <v>3.71</v>
       </c>
       <c r="C143" s="2">
-        <v>38.4</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B144" s="1">
-        <v>3.67</v>
+        <v>3.98</v>
       </c>
       <c r="C144" s="2">
-        <v>45</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B145" s="1">
-        <v>3.27</v>
+        <v>4.34</v>
       </c>
       <c r="C145" s="2">
-        <v>34.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B146" s="1">
-        <v>2.97</v>
+        <v>4.34</v>
       </c>
       <c r="C146" s="2">
-        <v>37.6</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B147" s="1">
-        <v>3.59</v>
+        <v>4.95</v>
       </c>
       <c r="C147" s="2">
-        <v>37.1</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B148" s="1">
-        <v>5.36</v>
+        <v>3.77</v>
       </c>
       <c r="C148" s="2">
-        <v>46.1</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B149" s="1">
-        <v>2.63</v>
+        <v>2.72</v>
       </c>
       <c r="C149" s="2">
-        <v>41.5</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B150" s="1">
-        <v>3.71</v>
+        <v>3.76</v>
       </c>
       <c r="C150" s="2">
-        <v>48.1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B151" s="1">
-        <v>3.98</v>
+        <v>2.73</v>
       </c>
       <c r="C151" s="2">
-        <v>47.1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B152" s="1">
-        <v>4.34</v>
+        <v>4.82</v>
       </c>
       <c r="C152" s="2">
-        <v>43.5</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B153" s="1">
-        <v>4.34</v>
+        <v>4.03</v>
       </c>
       <c r="C153" s="2">
-        <v>44.4</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B154" s="1">
-        <v>4.95</v>
+        <v>3.6</v>
       </c>
       <c r="C154" s="2">
-        <v>45.4</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B155" s="1">
-        <v>3.77</v>
+        <v>3.75</v>
       </c>
       <c r="C155" s="2">
-        <v>41.5</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B156" s="1">
-        <v>2.72</v>
+        <v>3.97</v>
       </c>
       <c r="C156" s="2">
-        <v>27.9</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B157" s="1">
-        <v>3.89</v>
+        <v>3.78</v>
       </c>
       <c r="C157" s="2">
-        <v>37.799999999999997</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="B158" s="1">
-        <v>3.63</v>
+        <v>4.22</v>
       </c>
       <c r="C158" s="2">
-        <v>34.200000000000003</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B159" s="1">
-        <v>2.73</v>
+        <v>5.68</v>
       </c>
       <c r="C159" s="2">
-        <v>28</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B160" s="1">
-        <v>4.82</v>
+        <v>4.57</v>
       </c>
       <c r="C160" s="2">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B161" s="1">
-        <v>4.03</v>
+        <v>3.84</v>
       </c>
       <c r="C161" s="2">
-        <v>46.6</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B162" s="1">
-        <v>3.6</v>
+        <v>3.88</v>
       </c>
       <c r="C162" s="2">
-        <v>42.9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B163" s="1">
-        <v>3.75</v>
+        <v>4.67</v>
       </c>
       <c r="C163" s="2">
-        <v>48.5</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B164" s="1">
-        <v>3.97</v>
+        <v>5.14</v>
       </c>
       <c r="C164" s="2">
-        <v>47.2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B165" s="1">
-        <v>3.78</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="C165" s="2">
-        <v>48.6</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B166" s="1">
-        <v>4.22</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C166" s="2">
-        <v>48.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B167" s="1">
-        <v>5.68</v>
+        <v>3.2</v>
       </c>
       <c r="C167" s="2">
-        <v>46.9</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B168" s="1">
-        <v>4.57</v>
+        <v>3.67</v>
       </c>
       <c r="C168" s="2">
-        <v>47.3</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B169" s="1">
-        <v>3.84</v>
+        <v>3.91</v>
       </c>
       <c r="C169" s="2">
-        <v>48.6</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B170" s="1">
-        <v>3.88</v>
+        <v>3.9</v>
       </c>
       <c r="C170" s="2">
-        <v>49</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B171" s="1">
-        <v>4.67</v>
+        <v>3.63</v>
       </c>
       <c r="C171" s="2">
-        <v>44.8</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B172" s="1">
-        <v>5.14</v>
+        <v>2.97</v>
       </c>
       <c r="C172" s="2">
-        <v>46</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1">
-        <v>4.1900000000000004</v>
+        <v>2.99</v>
       </c>
       <c r="C173" s="2">
-        <v>48.3</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B174" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.63</v>
       </c>
       <c r="C174" s="2">
-        <v>49.5</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1">
-        <v>3.2</v>
+        <v>3.51</v>
       </c>
       <c r="C175" s="2">
-        <v>29.9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1">
-        <v>3.67</v>
+        <v>4.92</v>
       </c>
       <c r="C176" s="2">
-        <v>36.6</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1">
-        <v>3.91</v>
+        <v>4.18</v>
       </c>
       <c r="C177" s="2">
-        <v>47.2</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="B178" s="1">
-        <v>3.9</v>
+        <v>3.98</v>
       </c>
       <c r="C178" s="2">
-        <v>46.1</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B179" s="1">
-        <v>3.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C179" s="2">
-        <v>48.9</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B180" s="1">
-        <v>3.63</v>
+        <v>3.67</v>
       </c>
       <c r="C180" s="2">
-        <v>38.200000000000003</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1">
-        <v>2.97</v>
+        <v>4.29</v>
       </c>
       <c r="C181" s="2">
-        <v>43.8</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B182" s="1">
-        <v>2.99</v>
+        <v>3.78</v>
       </c>
       <c r="C182" s="2">
-        <v>31.9</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B183" s="1">
-        <v>4.63</v>
+        <v>4.58</v>
       </c>
       <c r="C183" s="2">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B184" s="1">
-        <v>3.51</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="C184" s="2">
-        <v>36</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B185" s="1">
-        <v>4.92</v>
+        <v>3.74</v>
       </c>
       <c r="C185" s="2">
-        <v>45.9</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B186" s="1">
-        <v>4.18</v>
+        <v>3.89</v>
       </c>
       <c r="C186" s="2">
-        <v>44.1</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B187" s="1">
-        <v>3.98</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="C187" s="2">
-        <v>43.3</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B188" s="1">
-        <v>4.4000000000000004</v>
+        <v>5.01</v>
       </c>
       <c r="C188" s="2">
-        <v>44.5</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B189" s="1">
-        <v>3.67</v>
+        <v>4.25</v>
       </c>
       <c r="C189" s="2">
-        <v>48.5</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B190" s="1">
-        <v>4.29</v>
+        <v>4.84</v>
       </c>
       <c r="C190" s="2">
-        <v>46.2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B191" s="1">
-        <v>3.78</v>
+        <v>3.71</v>
       </c>
       <c r="C191" s="2">
-        <v>48.7</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B192" s="1">
-        <v>4.58</v>
+        <v>3.83</v>
       </c>
       <c r="C192" s="2">
-        <v>46.3</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B193" s="1">
-        <v>2.4300000000000002</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="C193" s="2">
-        <v>23.4</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B194" s="1">
-        <v>3.74</v>
+        <v>5.18</v>
       </c>
       <c r="C194" s="2">
-        <v>48.6</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B195" s="1">
-        <v>3.89</v>
+        <v>4.95</v>
       </c>
       <c r="C195" s="2">
-        <v>48.3</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B196" s="1">
-        <v>4.8099999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="C196" s="2">
-        <v>44.5</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="B197" s="1">
-        <v>5.01</v>
+        <v>3.87</v>
       </c>
       <c r="C197" s="2">
-        <v>47.2</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B198" s="1">
-        <v>4.18</v>
+        <v>3.89</v>
       </c>
       <c r="C198" s="2">
-        <v>44.4</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="B199" s="1">
-        <v>4.3099999999999996</v>
+        <v>1.81</v>
       </c>
       <c r="C199" s="2">
-        <v>46.4</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B200" s="1">
-        <v>4.84</v>
+        <v>3.47</v>
       </c>
       <c r="C200" s="2">
-        <v>48</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B201" s="1">
-        <v>3.71</v>
+        <v>3.69</v>
       </c>
       <c r="C201" s="2">
-        <v>47.9</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B202" s="1">
-        <v>3.83</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="C202" s="2">
-        <v>48.9</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B203" s="1">
-        <v>4.1500000000000004</v>
+        <v>3.77</v>
       </c>
       <c r="C203" s="2">
-        <v>43.4</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B204" s="1">
-        <v>5.18</v>
+        <v>3.44</v>
       </c>
       <c r="C204" s="2">
-        <v>49.3</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B205" s="1">
-        <v>4.95</v>
+        <v>3.6</v>
       </c>
       <c r="C205" s="2">
-        <v>43.9</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B206" s="1">
-        <v>3.9</v>
+        <v>5.18</v>
       </c>
       <c r="C206" s="2">
-        <v>48.3</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B207" s="1">
-        <v>3.87</v>
+        <v>3.79</v>
       </c>
       <c r="C207" s="2">
-        <v>47.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B208" s="1">
-        <v>3.89</v>
+        <v>3.24</v>
       </c>
       <c r="C208" s="2">
-        <v>48.7</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B209" s="1">
-        <v>1.81</v>
+        <v>3.82</v>
       </c>
       <c r="C209" s="2">
-        <v>17.899999999999999</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B210" s="1">
-        <v>3.47</v>
+        <v>3.25</v>
       </c>
       <c r="C210" s="2">
-        <v>32.4</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B211" s="1">
-        <v>3.69</v>
+        <v>4.53</v>
       </c>
       <c r="C211" s="2">
-        <v>43.7</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B212" s="1">
-        <v>4.7699999999999996</v>
+        <v>3.01</v>
       </c>
       <c r="C212" s="2">
-        <v>48.6</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B213" s="1">
-        <v>3.77</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C213" s="2">
-        <v>47.5</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B214" s="1">
-        <v>3.44</v>
+        <v>3.91</v>
       </c>
       <c r="C214" s="2">
-        <v>46.4</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B215" s="1">
-        <v>3.6</v>
+        <v>3.87</v>
       </c>
       <c r="C215" s="2">
-        <v>46.8</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B216" s="1">
-        <v>5.18</v>
+        <v>3.72</v>
       </c>
       <c r="C216" s="2">
-        <v>45.6</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B217" s="1">
-        <v>3.79</v>
+        <v>3.36</v>
       </c>
       <c r="C217" s="2">
-        <v>48</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B218" s="1">
-        <v>3.25</v>
+        <v>2.34</v>
       </c>
       <c r="C218" s="2">
-        <v>35.799999999999997</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="B219" s="1">
-        <v>3.23</v>
+        <v>3.68</v>
       </c>
       <c r="C219" s="2">
-        <v>35.6</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B220" s="1">
-        <v>3.82</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="C220" s="2">
-        <v>48.3</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B221" s="1">
-        <v>3.25</v>
+        <v>3.69</v>
       </c>
       <c r="C221" s="2">
-        <v>29.2</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="B222" s="1">
-        <v>4.53</v>
+        <v>3.79</v>
       </c>
       <c r="C222" s="2">
-        <v>46.7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B223" s="1">
-        <v>3.01</v>
+        <v>3.86</v>
       </c>
       <c r="C223" s="2">
-        <v>30.4</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B224" s="1">
-        <v>4.0599999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="C224" s="2">
-        <v>44.7</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B225" s="1">
-        <v>3.91</v>
+        <v>3.8</v>
       </c>
       <c r="C225" s="2">
-        <v>42.6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B226" s="1">
-        <v>3.87</v>
+        <v>4.08</v>
       </c>
       <c r="C226" s="2">
-        <v>38.9</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B227" s="1">
-        <v>3.72</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="C227" s="2">
-        <v>47.5</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B228" s="1">
-        <v>3.36</v>
+        <v>3.25</v>
       </c>
       <c r="C228" s="2">
-        <v>30.3</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B229" s="1">
-        <v>2.34</v>
+        <v>4.42</v>
       </c>
       <c r="C229" s="2">
-        <v>22.6</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B230" s="1">
-        <v>3.68</v>
+        <v>5.01</v>
       </c>
       <c r="C230" s="2">
-        <v>48.9</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B231" s="1">
-        <v>4.1900000000000004</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="C231" s="2">
-        <v>43.4</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B232" s="1">
-        <v>3.69</v>
+        <v>3.17</v>
       </c>
       <c r="C232" s="2">
-        <v>47.9</v>
+        <v>32.299999999999997</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B233" s="1">
-        <v>3.79</v>
+        <v>4.49</v>
       </c>
       <c r="C233" s="2">
-        <v>49</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B234" s="1">
-        <v>3.86</v>
+        <v>3.6</v>
       </c>
       <c r="C234" s="2">
-        <v>40.4</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B235" s="1">
-        <v>3.8</v>
+        <v>4.99</v>
       </c>
       <c r="C235" s="2">
         <v>48.6</v>
@@ -5515,659 +5512,659 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B236" s="1">
-        <v>3.8</v>
+        <v>4.13</v>
       </c>
       <c r="C236" s="2">
-        <v>49</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B237" s="1">
-        <v>4.08</v>
+        <v>4.53</v>
       </c>
       <c r="C237" s="2">
-        <v>40.4</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B238" s="1">
-        <v>4.8</v>
+        <v>5.17</v>
       </c>
       <c r="C238" s="2">
-        <v>41.3</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="B239" s="1">
-        <v>4.5</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="C239" s="2">
-        <v>38.5</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B240" s="1">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="C240" s="2">
-        <v>47.2</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B241" s="1">
-        <v>4.42</v>
+        <v>4.21</v>
       </c>
       <c r="C241" s="2">
-        <v>39.5</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B242" s="1">
-        <v>5.01</v>
+        <v>3.92</v>
       </c>
       <c r="C242" s="2">
-        <v>46.9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B243" s="1">
-        <v>4.1500000000000004</v>
+        <v>4.33</v>
       </c>
       <c r="C243" s="2">
-        <v>48.9</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B244" s="1">
-        <v>3.17</v>
+        <v>3.85</v>
       </c>
       <c r="C244" s="2">
-        <v>32.299999999999997</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B245" s="1">
-        <v>4.49</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C245" s="2">
-        <v>46.1</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B246" s="1">
-        <v>3.6</v>
+        <v>4.42</v>
       </c>
       <c r="C246" s="2">
-        <v>45.6</v>
+        <v>46.6</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B247" s="1">
-        <v>4.99</v>
+        <v>3.83</v>
       </c>
       <c r="C247" s="2">
-        <v>48.6</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B248" s="1">
-        <v>4.13</v>
+        <v>3.93</v>
       </c>
       <c r="C248" s="2">
-        <v>47.5</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B249" s="1">
-        <v>4.53</v>
+        <v>5.29</v>
       </c>
       <c r="C249" s="2">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B250" s="1">
-        <v>5.17</v>
+        <v>4.41</v>
       </c>
       <c r="C250" s="2">
-        <v>46.2</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B251" s="1">
-        <v>4.7300000000000004</v>
+        <v>3.95</v>
       </c>
       <c r="C251" s="2">
-        <v>48.2</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B252" s="1">
-        <v>4.75</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C252" s="2">
-        <v>42.8</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B253" s="1">
-        <v>4.21</v>
+        <v>3.3</v>
       </c>
       <c r="C253" s="2">
-        <v>40.799999999999997</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B254" s="1">
-        <v>3.92</v>
+        <v>3.8</v>
       </c>
       <c r="C254" s="2">
-        <v>49</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B255" s="1">
-        <v>4.33</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="C255" s="2">
-        <v>48.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B256" s="1">
-        <v>3.85</v>
+        <v>4.18</v>
       </c>
       <c r="C256" s="2">
-        <v>48.3</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B257" s="1">
-        <v>4.0599999999999996</v>
+        <v>3.47</v>
       </c>
       <c r="C257" s="2">
-        <v>36.1</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B258" s="1">
-        <v>4.42</v>
+        <v>3.46</v>
       </c>
       <c r="C258" s="2">
-        <v>46.6</v>
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="B259" s="1">
-        <v>3.83</v>
+        <v>3.7</v>
       </c>
       <c r="C259" s="2">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="B260" s="1">
-        <v>3.82</v>
+        <v>3.91</v>
       </c>
       <c r="C260" s="2">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B261" s="1">
-        <v>3.93</v>
+        <v>4.03</v>
       </c>
       <c r="C261" s="2">
-        <v>48.6</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B262" s="1">
-        <v>5.29</v>
+        <v>3.38</v>
       </c>
       <c r="C262" s="2">
-        <v>48.3</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B263" s="1">
-        <v>4.41</v>
+        <v>5.27</v>
       </c>
       <c r="C263" s="2">
-        <v>47.4</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B264" s="1">
-        <v>3.95</v>
+        <v>2.71</v>
       </c>
       <c r="C264" s="2">
-        <v>35.9</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B265" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.51</v>
       </c>
       <c r="C265" s="2">
-        <v>44.1</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B266" s="1">
-        <v>3.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C266" s="2">
-        <v>30.5</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B267" s="1">
-        <v>3.8</v>
+        <v>5.18</v>
       </c>
       <c r="C267" s="2">
-        <v>41.5</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B268" s="1">
-        <v>4.4800000000000004</v>
+        <v>4.04</v>
       </c>
       <c r="C268" s="2">
-        <v>45</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B269" s="1">
-        <v>4.18</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="C269" s="2">
-        <v>47.5</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B270" s="1">
-        <v>3.47</v>
+        <v>4.43</v>
       </c>
       <c r="C270" s="2">
-        <v>32.1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B271" s="1">
-        <v>3.46</v>
+        <v>4.53</v>
       </c>
       <c r="C271" s="2">
-        <v>33.200000000000003</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B272" s="1">
-        <v>3.7</v>
+        <v>4.88</v>
       </c>
       <c r="C272" s="2">
-        <v>48.6</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B273" s="1">
-        <v>3.91</v>
+        <v>5.03</v>
       </c>
       <c r="C273" s="2">
-        <v>48.1</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B274" s="1">
-        <v>4.03</v>
+        <v>4.75</v>
       </c>
       <c r="C274" s="2">
-        <v>41.2</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B275" s="1">
-        <v>3.38</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="C275" s="2">
-        <v>34.6</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B276" s="1">
-        <v>5.27</v>
+        <v>3.17</v>
       </c>
       <c r="C276" s="2">
-        <v>47.2</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B277" s="1">
-        <v>2.71</v>
+        <v>2.59</v>
       </c>
       <c r="C277" s="2">
-        <v>40.799999999999997</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B278" s="1">
-        <v>4.51</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="C278" s="2">
-        <v>42.1</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B279" s="1">
-        <v>4.4000000000000004</v>
+        <v>2.67</v>
       </c>
       <c r="C279" s="2">
-        <v>40.6</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B280" s="1">
-        <v>5.14</v>
+        <v>2.59</v>
       </c>
       <c r="C280" s="2">
-        <v>44.1</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="B281" s="1">
-        <v>5.21</v>
+        <v>2.31</v>
       </c>
       <c r="C281" s="2">
-        <v>44.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="B282" s="1">
-        <v>4.04</v>
+        <v>2.83</v>
       </c>
       <c r="C282" s="2">
-        <v>38.700000000000003</v>
+        <v>39.200000000000003</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B283" s="1">
-        <v>4.8600000000000003</v>
+        <v>2.5</v>
       </c>
       <c r="C283" s="2">
-        <v>40.4</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="B284" s="1">
-        <v>4.43</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C284" s="2">
-        <v>38</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B285" s="1">
-        <v>4.53</v>
+        <v>2.48</v>
       </c>
       <c r="C285" s="2">
-        <v>42.8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="B286" s="1">
-        <v>4.88</v>
+        <v>1.65</v>
       </c>
       <c r="C286" s="2">
-        <v>44.7</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B287" s="1">
-        <v>5.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C287" s="2">
-        <v>43.7</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B288" s="1">
-        <v>4.75</v>
+        <v>2.95</v>
       </c>
       <c r="C288" s="2">
-        <v>42.3</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="B289" s="1">
-        <v>2.4700000000000002</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C289" s="2">
-        <v>38.9</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="B290" s="1">
-        <v>3.17</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C290" s="2">
-        <v>41.7</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B291" s="1">
-        <v>2.59</v>
+        <v>2.57</v>
       </c>
       <c r="C291" s="2">
-        <v>40.9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B292" s="1">
-        <v>2.4700000000000002</v>
+        <v>1.44</v>
       </c>
       <c r="C292" s="2">
-        <v>40.200000000000003</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B293" s="1">
-        <v>2.67</v>
+        <v>1.93</v>
       </c>
       <c r="C293" s="2">
-        <v>39.9</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B294" s="1">
-        <v>2.59</v>
+        <v>1.7</v>
       </c>
       <c r="C294" s="2">
-        <v>43.3</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="B295" s="1">
-        <v>2.31</v>
+        <v>1.69</v>
       </c>
       <c r="C295" s="2">
         <v>42</v>
@@ -6175,1418 +6172,1418 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="B296" s="1">
-        <v>2.83</v>
+        <v>1.7</v>
       </c>
       <c r="C296" s="2">
-        <v>39.200000000000003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B297" s="1">
-        <v>2.5</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C297" s="2">
-        <v>38.5</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="B298" s="1">
-        <v>2.2000000000000002</v>
+        <v>1.86</v>
       </c>
       <c r="C298" s="2">
-        <v>42.8</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B299" s="1">
-        <v>2.48</v>
+        <v>1.96</v>
       </c>
       <c r="C299" s="2">
-        <v>40</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B300" s="1">
-        <v>1.65</v>
+        <v>2.77</v>
       </c>
       <c r="C300" s="2">
-        <v>42.6</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B301" s="1">
-        <v>1.97</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C301" s="2">
-        <v>42.5</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="B302" s="1">
-        <v>2.08</v>
+        <v>2.58</v>
       </c>
       <c r="C302" s="2">
-        <v>41.3</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B303" s="1">
-        <v>2.95</v>
+        <v>2.69</v>
       </c>
       <c r="C303" s="2">
-        <v>40.799999999999997</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B304" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.61</v>
       </c>
       <c r="C304" s="2">
-        <v>38.200000000000003</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="B305" s="1">
-        <v>2.5499999999999998</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C305" s="2">
-        <v>34.5</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B306" s="1">
-        <v>2.57</v>
+        <v>2.66</v>
       </c>
       <c r="C306" s="2">
-        <v>36</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="B307" s="1">
-        <v>1.44</v>
+        <v>2.64</v>
       </c>
       <c r="C307" s="2">
-        <v>41.7</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="B308" s="1">
-        <v>1.93</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C308" s="2">
-        <v>39.700000000000003</v>
+        <v>36</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="B309" s="1">
-        <v>1.7</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="C309" s="2">
-        <v>39.5</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="B310" s="1">
-        <v>1.69</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C310" s="2">
-        <v>42</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="B311" s="1">
-        <v>1.7</v>
+        <v>2.61</v>
       </c>
       <c r="C311" s="2">
-        <v>40</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="B312" s="1">
-        <v>2.2799999999999998</v>
+        <v>2.61</v>
       </c>
       <c r="C312" s="2">
-        <v>41.4</v>
+        <v>34.700000000000003</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B313" s="1">
-        <v>1.86</v>
+        <v>2.58</v>
       </c>
       <c r="C313" s="2">
-        <v>40.299999999999997</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="B314" s="1">
-        <v>1.96</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C314" s="2">
-        <v>34.6</v>
+        <v>36.299999999999997</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="B315" s="1">
-        <v>2.77</v>
+        <v>2.37</v>
       </c>
       <c r="C315" s="2">
-        <v>35.1</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B316" s="1">
-        <v>2.4900000000000002</v>
+        <v>2.27</v>
       </c>
       <c r="C316" s="2">
-        <v>38.6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B317" s="1">
-        <v>2.58</v>
+        <v>2.29</v>
       </c>
       <c r="C317" s="2">
-        <v>39.5</v>
+        <v>34.799999999999997</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="B318" s="1">
-        <v>2.69</v>
+        <v>2</v>
       </c>
       <c r="C318" s="2">
-        <v>40.200000000000003</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B319" s="1">
-        <v>2.61</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C319" s="2">
-        <v>41.3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B320" s="1">
-        <v>2.5099999999999998</v>
+        <v>1.64</v>
       </c>
       <c r="C320" s="2">
-        <v>39.799999999999997</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B321" s="1">
-        <v>2.65</v>
+        <v>1.7</v>
       </c>
       <c r="C321" s="2">
-        <v>40</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="B322" s="1">
-        <v>2.66</v>
+        <v>2.02</v>
       </c>
       <c r="C322" s="2">
-        <v>40.4</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B323" s="1">
-        <v>2.64</v>
+        <v>1.84</v>
       </c>
       <c r="C323" s="2">
-        <v>36.9</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="B324" s="1">
-        <v>2.5499999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="C324" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B325" s="1">
-        <v>2.5299999999999998</v>
+        <v>2.37</v>
       </c>
       <c r="C325" s="2">
-        <v>35.9</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B326" s="1">
-        <v>2.4900000000000002</v>
+        <v>2.13</v>
       </c>
       <c r="C326" s="2">
-        <v>40.200000000000003</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="B327" s="1">
-        <v>2.61</v>
+        <v>2.78</v>
       </c>
       <c r="C327" s="2">
-        <v>39.700000000000003</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="B328" s="1">
-        <v>2.61</v>
+        <v>2.79</v>
       </c>
       <c r="C328" s="2">
-        <v>34.700000000000003</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="B329" s="1">
-        <v>2.58</v>
+        <v>3.06</v>
       </c>
       <c r="C329" s="2">
-        <v>41.8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="B330" s="1">
-        <v>2.0699999999999998</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C330" s="2">
-        <v>36.299999999999997</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B331" s="1">
-        <v>2.37</v>
+        <v>2.76</v>
       </c>
       <c r="C331" s="2">
-        <v>37.6</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="B332" s="1">
-        <v>2.27</v>
+        <v>3.13</v>
       </c>
       <c r="C332" s="2">
-        <v>30</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="B333" s="1">
-        <v>2.29</v>
+        <v>2.84</v>
       </c>
       <c r="C333" s="2">
-        <v>34.799999999999997</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
-        <v>320</v>
+        <v>620</v>
       </c>
       <c r="B334" s="1">
-        <v>2</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C334" s="2">
-        <v>41.4</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="B335" s="1">
-        <v>2.5099999999999998</v>
+        <v>2.59</v>
       </c>
       <c r="C335" s="2">
-        <v>33</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B336" s="1">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="C336" s="2">
-        <v>42.3</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B337" s="1">
-        <v>1.7</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C337" s="2">
-        <v>42.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B338" s="1">
-        <v>2.02</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C338" s="2">
-        <v>39.799999999999997</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B339" s="1">
-        <v>1.84</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="C339" s="2">
-        <v>43.3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B340" s="1">
-        <v>1.98</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="C340" s="2">
-        <v>42</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="B341" s="1">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="C341" s="2">
-        <v>40.5</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="B342" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="C342" s="2">
-        <v>42</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="B343" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.37</v>
       </c>
       <c r="C343" s="2">
-        <v>41.2</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="B344" s="1">
-        <v>2.78</v>
+        <v>2.71</v>
       </c>
       <c r="C344" s="2">
-        <v>40.700000000000003</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="B345" s="1">
-        <v>2.79</v>
+        <v>2.62</v>
       </c>
       <c r="C345" s="2">
-        <v>38.4</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="B346" s="1">
-        <v>3.06</v>
+        <v>2.87</v>
       </c>
       <c r="C346" s="2">
-        <v>40</v>
+        <v>38.299999999999997</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="B347" s="1">
-        <v>2.4900000000000002</v>
+        <v>2.59</v>
       </c>
       <c r="C347" s="2">
-        <v>30.3</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="B348" s="1">
-        <v>2.76</v>
+        <v>2.48</v>
       </c>
       <c r="C348" s="2">
-        <v>42.3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B349" s="1">
-        <v>3.13</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C349" s="2">
-        <v>38.5</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="B350" s="1">
-        <v>2.84</v>
+        <v>2.64</v>
       </c>
       <c r="C350" s="2">
-        <v>40.700000000000003</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
-        <v>621</v>
+        <v>352</v>
       </c>
       <c r="B351" s="1">
-        <v>2.2599999999999998</v>
+        <v>2.41</v>
       </c>
       <c r="C351" s="2">
-        <v>25.7</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="B352" s="1">
-        <v>2.59</v>
+        <v>2.64</v>
       </c>
       <c r="C352" s="2">
-        <v>39.700000000000003</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="B353" s="1">
-        <v>1.88</v>
+        <v>2.19</v>
       </c>
       <c r="C353" s="2">
-        <v>19.7</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="B354" s="1">
-        <v>2.5099999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="C354" s="2">
-        <v>38</v>
+        <v>32.299999999999997</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="B355" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="C355" s="2">
-        <v>33.1</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B356" s="1">
-        <v>2.0699999999999998</v>
+        <v>2.13</v>
       </c>
       <c r="C356" s="2">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="B357" s="1">
-        <v>2.4700000000000002</v>
+        <v>2.06</v>
       </c>
       <c r="C357" s="2">
-        <v>29.6</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="B358" s="1">
-        <v>2.6</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C358" s="2">
-        <v>41.7</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="B359" s="1">
-        <v>2.5299999999999998</v>
+        <v>2.54</v>
       </c>
       <c r="C359" s="2">
-        <v>41.8</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="B360" s="1">
-        <v>2.37</v>
+        <v>2.61</v>
       </c>
       <c r="C360" s="2">
-        <v>39.4</v>
+        <v>34.700000000000003</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="B361" s="1">
-        <v>2.71</v>
+        <v>2.63</v>
       </c>
       <c r="C361" s="2">
-        <v>27.5</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B362" s="1">
-        <v>2.62</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="C362" s="2">
-        <v>39.4</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="B363" s="1">
-        <v>2.9</v>
+        <v>2.31</v>
       </c>
       <c r="C363" s="2">
-        <v>38.6</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="B364" s="1">
-        <v>2.84</v>
+        <v>2.11</v>
       </c>
       <c r="C364" s="2">
-        <v>38</v>
+        <v>39.200000000000003</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B365" s="1">
-        <v>2.59</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C365" s="2">
-        <v>38.5</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="B366" s="1">
-        <v>2.48</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="C366" s="2">
-        <v>41</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="B367" s="1">
-        <v>2.5499999999999998</v>
+        <v>3.07</v>
       </c>
       <c r="C367" s="2">
-        <v>37.9</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="B368" s="1">
-        <v>2.64</v>
+        <v>2.48</v>
       </c>
       <c r="C368" s="2">
-        <v>41.7</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="B369" s="1">
-        <v>2.41</v>
+        <v>3.03</v>
       </c>
       <c r="C369" s="2">
-        <v>41.1</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="B370" s="1">
-        <v>2.64</v>
+        <v>2.95</v>
       </c>
       <c r="C370" s="2">
-        <v>35.700000000000003</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B371" s="1">
-        <v>2.19</v>
+        <v>2.74</v>
       </c>
       <c r="C371" s="2">
-        <v>43.4</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="B372" s="1">
-        <v>2.31</v>
+        <v>2.79</v>
       </c>
       <c r="C372" s="2">
-        <v>32.299999999999997</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="B373" s="1">
-        <v>2.34</v>
+        <v>2.98</v>
       </c>
       <c r="C373" s="2">
-        <v>36.700000000000003</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="B374" s="1">
-        <v>2.13</v>
+        <v>3.08</v>
       </c>
       <c r="C374" s="2">
-        <v>42</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="B375" s="1">
-        <v>2.06</v>
+        <v>2.8</v>
       </c>
       <c r="C375" s="2">
-        <v>28.3</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="B376" s="1">
-        <v>2.5499999999999998</v>
+        <v>2.77</v>
       </c>
       <c r="C376" s="2">
-        <v>37.1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="B377" s="1">
-        <v>2.54</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C377" s="2">
-        <v>41.4</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="B378" s="1">
-        <v>2.61</v>
+        <v>2.97</v>
       </c>
       <c r="C378" s="2">
-        <v>34.700000000000003</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="B379" s="1">
-        <v>2.63</v>
+        <v>3.09</v>
       </c>
       <c r="C379" s="2">
-        <v>42.3</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B380" s="1">
-        <v>2.4300000000000002</v>
+        <v>1.93</v>
       </c>
       <c r="C380" s="2">
-        <v>42.9</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="B381" s="1">
-        <v>2.31</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="C381" s="2">
-        <v>44.5</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B382" s="1">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="C382" s="2">
-        <v>39.200000000000003</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="B383" s="1">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="C383" s="2">
-        <v>43</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="B384" s="1">
-        <v>2.48</v>
+        <v>1.95</v>
       </c>
       <c r="C384" s="2">
-        <v>42.7</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="B385" s="1">
-        <v>2.2200000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="C385" s="2">
-        <v>41.7</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="B386" s="1">
-        <v>3.07</v>
+        <v>1.82</v>
       </c>
       <c r="C386" s="2">
-        <v>37.6</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="B387" s="1">
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
       <c r="C387" s="2">
-        <v>43.7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="B388" s="1">
-        <v>3.03</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C388" s="2">
-        <v>32.5</v>
+        <v>34.799999999999997</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="B389" s="1">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="C389" s="2">
-        <v>42.4</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="B390" s="1">
-        <v>2.74</v>
+        <v>2.93</v>
       </c>
       <c r="C390" s="2">
-        <v>38.200000000000003</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="B391" s="1">
-        <v>2.79</v>
+        <v>2.93</v>
       </c>
       <c r="C391" s="2">
-        <v>29.9</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="B392" s="1">
-        <v>2.98</v>
+        <v>2.83</v>
       </c>
       <c r="C392" s="2">
-        <v>36.6</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="B393" s="1">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
       <c r="C393" s="2">
-        <v>43.3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="B394" s="1">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="C394" s="2">
-        <v>43.2</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="B395" s="1">
-        <v>2.77</v>
+        <v>2.61</v>
       </c>
       <c r="C395" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B396" s="1">
-        <v>2.5499999999999998</v>
+        <v>3.04</v>
       </c>
       <c r="C396" s="2">
-        <v>32.5</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="B397" s="1">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="C397" s="2">
-        <v>38.6</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="B398" s="1">
-        <v>3.09</v>
+        <v>3.18</v>
       </c>
       <c r="C398" s="2">
-        <v>40.5</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="B399" s="1">
-        <v>1.93</v>
+        <v>3.13</v>
       </c>
       <c r="C399" s="2">
-        <v>40.5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="B400" s="1">
-        <v>2.0099999999999998</v>
+        <v>2.83</v>
       </c>
       <c r="C400" s="2">
-        <v>36.200000000000003</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="B401" s="1">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="C401" s="2">
-        <v>35.5</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="B402" s="1">
-        <v>2.17</v>
+        <v>3.3</v>
       </c>
       <c r="C402" s="2">
-        <v>35.4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="B403" s="1">
-        <v>1.95</v>
+        <v>2.89</v>
       </c>
       <c r="C403" s="2">
-        <v>40.9</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="B404" s="1">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="C404" s="2">
-        <v>43.1</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="B405" s="1">
-        <v>1.89</v>
+        <v>2.9</v>
       </c>
       <c r="C405" s="2">
-        <v>43.9</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="B406" s="1">
-        <v>1.82</v>
+        <v>2.39</v>
       </c>
       <c r="C406" s="2">
-        <v>36.5</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="B407" s="1">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="C407" s="2">
-        <v>43</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="B408" s="1">
-        <v>2.5099999999999998</v>
+        <v>3.14</v>
       </c>
       <c r="C408" s="2">
-        <v>34.799999999999997</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="B409" s="1">
-        <v>2.89</v>
+        <v>2.84</v>
       </c>
       <c r="C409" s="2">
-        <v>33.5</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="B410" s="1">
-        <v>2.93</v>
+        <v>2.77</v>
       </c>
       <c r="C410" s="2">
-        <v>42.1</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="B411" s="1">
-        <v>2.93</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="C411" s="2">
-        <v>37.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="B412" s="1">
-        <v>2.83</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="C412" s="2">
-        <v>32.4</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="B413" s="1">
-        <v>2.88</v>
+        <v>2.31</v>
       </c>
       <c r="C413" s="2">
-        <v>40</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="B414" s="1">
-        <v>2.77</v>
+        <v>2.64</v>
       </c>
       <c r="C414" s="2">
-        <v>35.6</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="B415" s="1">
-        <v>2.61</v>
+        <v>1.82</v>
       </c>
       <c r="C415" s="2">
-        <v>42</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="B416" s="1">
-        <v>3.04</v>
+        <v>2.12</v>
       </c>
       <c r="C416" s="2">
-        <v>40.799999999999997</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B417" s="1">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="C417" s="2">
-        <v>42.9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="B418" s="1">
-        <v>3.18</v>
+        <v>2.6</v>
       </c>
       <c r="C418" s="2">
-        <v>44.3</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="B419" s="1">
-        <v>3.13</v>
+        <v>2.5</v>
       </c>
       <c r="C419" s="2">
-        <v>43</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="B420" s="1">
-        <v>2.83</v>
+        <v>2.58</v>
       </c>
       <c r="C420" s="2">
-        <v>38.200000000000003</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
       <c r="B421" s="1">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="C421" s="2">
-        <v>42.9</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="B422" s="1">
-        <v>3.3</v>
+        <v>2.69</v>
       </c>
       <c r="C422" s="2">
-        <v>35</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="B423" s="1">
-        <v>2.89</v>
+        <v>3.25</v>
       </c>
       <c r="C423" s="2">
-        <v>37.200000000000003</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="B424" s="1">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="C424" s="2">
         <v>39.700000000000003</v>
@@ -7594,428 +7591,428 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="B425" s="1">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="C425" s="2">
-        <v>40.1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="B426" s="1">
-        <v>2.9</v>
+        <v>3.17</v>
       </c>
       <c r="C426" s="2">
-        <v>35.200000000000003</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="B427" s="1">
-        <v>2.39</v>
+        <v>3.44</v>
       </c>
       <c r="C427" s="2">
-        <v>26.6</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="B428" s="1">
-        <v>2.5</v>
+        <v>3.28</v>
       </c>
       <c r="C428" s="2">
-        <v>34.6</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="B429" s="1">
-        <v>3.14</v>
+        <v>2.95</v>
       </c>
       <c r="C429" s="2">
-        <v>41.7</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="B430" s="1">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="C430" s="2">
-        <v>33.1</v>
+        <v>35.200000000000003</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="B431" s="1">
-        <v>2.77</v>
+        <v>2.37</v>
       </c>
       <c r="C431" s="2">
-        <v>39.700000000000003</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="B432" s="1">
-        <v>2.4300000000000002</v>
+        <v>2.61</v>
       </c>
       <c r="C432" s="2">
-        <v>44</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="B433" s="1">
-        <v>2.3199999999999998</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C433" s="2">
-        <v>42.3</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="B434" s="1">
-        <v>2.31</v>
+        <v>2.84</v>
       </c>
       <c r="C434" s="2">
-        <v>41.6</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="B435" s="1">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="C435" s="2">
-        <v>41.6</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="B436" s="1">
-        <v>1.82</v>
+        <v>2.84</v>
       </c>
       <c r="C436" s="2">
-        <v>40.5</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="B437" s="1">
-        <v>2.12</v>
+        <v>3.11</v>
       </c>
       <c r="C437" s="2">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="B438" s="1">
-        <v>2.5</v>
+        <v>2.85</v>
       </c>
       <c r="C438" s="2">
-        <v>43</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="B439" s="1">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="C439" s="2">
-        <v>39.6</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="B440" s="1">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="C440" s="2">
-        <v>39.799999999999997</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="B441" s="1">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="C441" s="2">
-        <v>41.2</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="B442" s="1">
-        <v>2.95</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C442" s="2">
-        <v>41.3</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="B443" s="1">
-        <v>2.69</v>
+        <v>2.21</v>
       </c>
       <c r="C443" s="2">
-        <v>43.8</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="B444" s="1">
-        <v>3.25</v>
+        <v>2.08</v>
       </c>
       <c r="C444" s="2">
-        <v>36.799999999999997</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="B445" s="1">
-        <v>3.17</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="C445" s="2">
-        <v>39.9</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="B446" s="1">
-        <v>3.19</v>
+        <v>2.12</v>
       </c>
       <c r="C446" s="2">
-        <v>39.5</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="B447" s="1">
-        <v>3.03</v>
+        <v>3.38</v>
       </c>
       <c r="C447" s="2">
-        <v>42</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="B448" s="1">
-        <v>3.17</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C448" s="2">
-        <v>38.700000000000003</v>
+        <v>34.299999999999997</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="B449" s="1">
-        <v>3.44</v>
+        <v>3.02</v>
       </c>
       <c r="C449" s="2">
-        <v>36.9</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="B450" s="1">
-        <v>3.28</v>
+        <v>3.02</v>
       </c>
       <c r="C450" s="2">
-        <v>39.299999999999997</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="B451" s="1">
-        <v>2.95</v>
+        <v>2.61</v>
       </c>
       <c r="C451" s="2">
-        <v>43.8</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="B452" s="1">
-        <v>3.15</v>
+        <v>3.09</v>
       </c>
       <c r="C452" s="2">
-        <v>35.200000000000003</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="B453" s="1">
-        <v>2.37</v>
+        <v>3.24</v>
       </c>
       <c r="C453" s="2">
-        <v>42.1</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
       <c r="B454" s="1">
-        <v>2.61</v>
+        <v>2.87</v>
       </c>
       <c r="C454" s="2">
-        <v>31.1</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B455" s="1">
-        <v>2.5499999999999998</v>
+        <v>2.88</v>
       </c>
       <c r="C455" s="2">
-        <v>37.799999999999997</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="B456" s="1">
-        <v>2.84</v>
+        <v>3.09</v>
       </c>
       <c r="C456" s="2">
-        <v>38.5</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="B457" s="1">
-        <v>2.74</v>
+        <v>3.42</v>
       </c>
       <c r="C457" s="2">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="B458" s="1">
-        <v>2.84</v>
+        <v>2.08</v>
       </c>
       <c r="C458" s="2">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="B459" s="1">
-        <v>3.11</v>
+        <v>2.62</v>
       </c>
       <c r="C459" s="2">
-        <v>43.4</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="B460" s="1">
-        <v>2.85</v>
+        <v>2.36</v>
       </c>
       <c r="C460" s="2">
-        <v>41.8</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="B461" s="1">
-        <v>3.6</v>
+        <v>2.85</v>
       </c>
       <c r="C461" s="2">
-        <v>41.6</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="B462" s="1">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="C462" s="2">
-        <v>41.7</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="B463" s="1">
-        <v>2.74</v>
+        <v>1.96</v>
       </c>
       <c r="C463" s="2">
         <v>43.1</v>
@@ -8023,285 +8020,285 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="B464" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.42</v>
       </c>
       <c r="C464" s="2">
-        <v>43.1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="B465" s="1">
-        <v>2.21</v>
+        <v>2.1</v>
       </c>
       <c r="C465" s="2">
-        <v>45.1</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="B466" s="1">
-        <v>2.0699999999999998</v>
+        <v>1.81</v>
       </c>
       <c r="C466" s="2">
-        <v>44.6</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="B467" s="1">
-        <v>2.09</v>
+        <v>2.7</v>
       </c>
       <c r="C467" s="2">
-        <v>44.1</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="B468" s="1">
-        <v>1.1100000000000001</v>
+        <v>3.56</v>
       </c>
       <c r="C468" s="2">
-        <v>34.200000000000003</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
       <c r="B469" s="1">
-        <v>2.12</v>
+        <v>3.91</v>
       </c>
       <c r="C469" s="2">
-        <v>52.9</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="B470" s="1">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="C470" s="2">
-        <v>38.5</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="B471" s="1">
-        <v>2.0499999999999998</v>
+        <v>3.57</v>
       </c>
       <c r="C471" s="2">
-        <v>34.299999999999997</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="B472" s="1">
-        <v>3.02</v>
+        <v>3.8</v>
       </c>
       <c r="C472" s="2">
-        <v>40.9</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="B473" s="1">
-        <v>3.02</v>
+        <v>4.16</v>
       </c>
       <c r="C473" s="2">
-        <v>34.5</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="B474" s="1">
-        <v>2.61</v>
+        <v>3.85</v>
       </c>
       <c r="C474" s="2">
-        <v>42.2</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="B475" s="1">
-        <v>3.09</v>
+        <v>3.84</v>
       </c>
       <c r="C475" s="2">
-        <v>34.4</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="B476" s="1">
-        <v>3.24</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="C476" s="2">
-        <v>40.9</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="B477" s="1">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="C477" s="2">
-        <v>39.5</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="B478" s="1">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="C478" s="2">
-        <v>43.1</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="B479" s="1">
-        <v>3.09</v>
+        <v>2.41</v>
       </c>
       <c r="C479" s="2">
-        <v>39.4</v>
+        <v>32.9</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
       <c r="B480" s="1">
-        <v>3.42</v>
+        <v>2.48</v>
       </c>
       <c r="C480" s="2">
-        <v>41.2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="B481" s="1">
-        <v>2.08</v>
+        <v>3.05</v>
       </c>
       <c r="C481" s="2">
-        <v>43.2</v>
+        <v>35.299999999999997</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="B482" s="1">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="C482" s="2">
-        <v>42.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="B483" s="1">
-        <v>2.36</v>
+        <v>1.78</v>
       </c>
       <c r="C483" s="2">
-        <v>42.7</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="B484" s="1">
-        <v>2.85</v>
+        <v>2.41</v>
       </c>
       <c r="C484" s="2">
-        <v>41.1</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="B485" s="1">
-        <v>2.96</v>
+        <v>2</v>
       </c>
       <c r="C485" s="2">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="B486" s="1">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="C486" s="2">
-        <v>43.1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="B487" s="1">
-        <v>2.4500000000000002</v>
+        <v>2.19</v>
       </c>
       <c r="C487" s="2">
-        <v>38.6</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="B488" s="1">
-        <v>2.39</v>
+        <v>2.79</v>
       </c>
       <c r="C488" s="2">
-        <v>39.299999999999997</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="B489" s="1">
-        <v>2.1</v>
+        <v>2.89</v>
       </c>
       <c r="C489" s="2">
         <v>42.4</v>
@@ -8309,2311 +8306,1959 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="B490" s="1">
-        <v>1.81</v>
+        <v>2.4</v>
       </c>
       <c r="C490" s="2">
-        <v>42.4</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="B491" s="1">
-        <v>2.7</v>
+        <v>2.12</v>
       </c>
       <c r="C491" s="2">
-        <v>28.4</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="B492" s="1">
-        <v>3.56</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="C492" s="2">
-        <v>41.8</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="B493" s="1">
-        <v>3.91</v>
+        <v>3.86</v>
       </c>
       <c r="C493" s="2">
-        <v>43.7</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="B494" s="1">
-        <v>3.29</v>
+        <v>4.13</v>
       </c>
       <c r="C494" s="2">
-        <v>43.9</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="B495" s="1">
-        <v>3.57</v>
+        <v>4</v>
       </c>
       <c r="C495" s="2">
-        <v>43.6</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="B496" s="1">
-        <v>3.8</v>
+        <v>4.43</v>
       </c>
       <c r="C496" s="2">
-        <v>43.6</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="B497" s="1">
-        <v>4.16</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="C497" s="2">
-        <v>42.9</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="B498" s="1">
-        <v>3.85</v>
+        <v>4.17</v>
       </c>
       <c r="C498" s="2">
-        <v>35.4</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="B499" s="1">
-        <v>3.84</v>
+        <v>4.38</v>
       </c>
       <c r="C499" s="2">
-        <v>45.3</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="B500" s="1">
-        <v>4.6500000000000004</v>
+        <v>4.66</v>
       </c>
       <c r="C500" s="2">
-        <v>42.7</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="B501" s="1">
-        <v>2.83</v>
+        <v>3.21</v>
       </c>
       <c r="C501" s="2">
-        <v>45.3</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="B502" s="1">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="C502" s="2">
-        <v>34.4</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="B503" s="1">
-        <v>2.41</v>
+        <v>3</v>
       </c>
       <c r="C503" s="2">
-        <v>32.9</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="B504" s="1">
-        <v>2.48</v>
+        <v>3.38</v>
       </c>
       <c r="C504" s="2">
-        <v>44</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="B505" s="1">
-        <v>3.05</v>
+        <v>3.42</v>
       </c>
       <c r="C505" s="2">
-        <v>35.299999999999997</v>
+        <v>41</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="B506" s="1">
-        <v>2.75</v>
+        <v>3.18</v>
       </c>
       <c r="C506" s="2">
-        <v>36</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
-        <v>486</v>
+        <v>509</v>
       </c>
       <c r="B507" s="1">
-        <v>1.78</v>
+        <v>2.41</v>
       </c>
       <c r="C507" s="2">
-        <v>43.3</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="B508" s="1">
-        <v>2.4300000000000002</v>
+        <v>2.88</v>
       </c>
       <c r="C508" s="2">
-        <v>41.9</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="B509" s="1">
-        <v>2.39</v>
+        <v>2.94</v>
       </c>
       <c r="C509" s="2">
-        <v>41.6</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="B510" s="1">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="C510" s="2">
-        <v>43.6</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="B511" s="1">
-        <v>1.99</v>
+        <v>2.69</v>
       </c>
       <c r="C511" s="2">
-        <v>43</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="B512" s="1">
-        <v>2.19</v>
+        <v>2.42</v>
       </c>
       <c r="C512" s="2">
-        <v>42.8</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="B513" s="1">
-        <v>2.79</v>
+        <v>3.13</v>
       </c>
       <c r="C513" s="2">
-        <v>42.1</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="B514" s="1">
-        <v>2.89</v>
+        <v>3.82</v>
       </c>
       <c r="C514" s="2">
-        <v>42.4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="B515" s="1">
-        <v>2.4</v>
+        <v>3.23</v>
       </c>
       <c r="C515" s="2">
-        <v>43.7</v>
+        <v>36.700000000000003</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="B516" s="1">
-        <v>2.12</v>
+        <v>2.78</v>
       </c>
       <c r="C516" s="2">
-        <v>43.1</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B517" s="1">
-        <v>4.0199999999999996</v>
+        <v>2.83</v>
       </c>
       <c r="C517" s="2">
-        <v>44.2</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="B518" s="1">
-        <v>3.86</v>
+        <v>2.75</v>
       </c>
       <c r="C518" s="2">
-        <v>43.2</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="B519" s="1">
-        <v>4.13</v>
+        <v>2.23</v>
       </c>
       <c r="C519" s="2">
-        <v>36.700000000000003</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" s="3" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="B520" s="1">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="C520" s="2">
-        <v>43.3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" s="3" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="B521" s="1">
-        <v>4.43</v>
+        <v>2.06</v>
       </c>
       <c r="C521" s="2">
-        <v>39.1</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" s="3" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="B522" s="1">
-        <v>4.1500000000000004</v>
+        <v>2.25</v>
       </c>
       <c r="C522" s="2">
-        <v>37.4</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" s="3" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="B523" s="1">
-        <v>4.17</v>
+        <v>1.83</v>
       </c>
       <c r="C523" s="2">
-        <v>44.4</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" s="3" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="B524" s="1">
-        <v>4.38</v>
+        <v>1.81</v>
       </c>
       <c r="C524" s="2">
-        <v>43.4</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" s="3" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="B525" s="1">
-        <v>4.66</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C525" s="2">
-        <v>41.5</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" s="3" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="B526" s="1">
-        <v>3.21</v>
+        <v>1.92</v>
       </c>
       <c r="C526" s="2">
-        <v>43.1</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" s="3" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="B527" s="1">
-        <v>3</v>
+        <v>2.12</v>
       </c>
       <c r="C527" s="2">
-        <v>33.5</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" s="3" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="B528" s="1">
-        <v>3</v>
+        <v>4.12</v>
       </c>
       <c r="C528" s="2">
-        <v>34.1</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" s="3" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="B529" s="1">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="C529" s="2">
-        <v>36.799999999999997</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" s="3" t="s">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="B530" s="1">
-        <v>3.35</v>
+        <v>3.77</v>
       </c>
       <c r="C530" s="2">
-        <v>36.4</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" s="3" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="B531" s="1">
-        <v>3.42</v>
+        <v>3.63</v>
       </c>
       <c r="C531" s="2">
-        <v>41</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" s="3" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="B532" s="1">
-        <v>3.18</v>
+        <v>4.05</v>
       </c>
       <c r="C532" s="2">
-        <v>32.5</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" s="3" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="B533" s="1">
-        <v>2.41</v>
+        <v>3.87</v>
       </c>
       <c r="C533" s="2">
-        <v>44.1</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" s="3" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="B534" s="1">
-        <v>2.88</v>
+        <v>3.85</v>
       </c>
       <c r="C534" s="2">
-        <v>42.4</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" s="3" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="B535" s="1">
-        <v>2.94</v>
+        <v>3.75</v>
       </c>
       <c r="C535" s="2">
-        <v>31.4</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" s="3" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="B536" s="1">
-        <v>2.44</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="C536" s="2">
-        <v>43.2</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" s="3" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="B537" s="1">
-        <v>2.69</v>
+        <v>3.84</v>
       </c>
       <c r="C537" s="2">
-        <v>41.6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" s="3" t="s">
-        <v>515</v>
+        <v>540</v>
       </c>
       <c r="B538" s="1">
-        <v>2.42</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C538" s="2">
-        <v>42.4</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" s="3" t="s">
-        <v>516</v>
+        <v>541</v>
       </c>
       <c r="B539" s="1">
-        <v>3.13</v>
+        <v>2.99</v>
       </c>
       <c r="C539" s="2">
-        <v>42.9</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" s="3" t="s">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="B540" s="1">
-        <v>3.82</v>
+        <v>2.68</v>
       </c>
       <c r="C540" s="2">
-        <v>44</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" s="3" t="s">
-        <v>518</v>
+        <v>543</v>
       </c>
       <c r="B541" s="1">
-        <v>3.23</v>
+        <v>2.72</v>
       </c>
       <c r="C541" s="2">
-        <v>36.700000000000003</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" s="3" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="B542" s="1">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="C542" s="2">
-        <v>43.9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" s="3" t="s">
-        <v>520</v>
+        <v>545</v>
       </c>
       <c r="B543" s="1">
-        <v>2.83</v>
+        <v>2.89</v>
       </c>
       <c r="C543" s="2">
-        <v>42.6</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" s="3" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="B544" s="1">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="C544" s="2">
-        <v>42.5</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" s="3" t="s">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="B545" s="1">
-        <v>2.23</v>
+        <v>3.25</v>
       </c>
       <c r="C545" s="2">
-        <v>34.6</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" s="3" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="B546" s="1">
-        <v>1.91</v>
+        <v>2.69</v>
       </c>
       <c r="C546" s="2">
-        <v>40</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" s="3" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
       <c r="B547" s="1">
-        <v>2.06</v>
+        <v>4.67</v>
       </c>
       <c r="C547" s="2">
-        <v>36.1</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" s="3" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="B548" s="1">
-        <v>2.25</v>
+        <v>4.88</v>
       </c>
       <c r="C548" s="2">
-        <v>36.6</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" s="3" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="B549" s="1">
-        <v>1.83</v>
+        <v>4.83</v>
       </c>
       <c r="C549" s="2">
-        <v>41.2</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" s="3" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="B550" s="1">
-        <v>1.8</v>
+        <v>5.31</v>
       </c>
       <c r="C550" s="2">
-        <v>39.4</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" s="3" t="s">
-        <v>0</v>
+        <v>553</v>
       </c>
       <c r="B551" s="1">
-        <v>1.82</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C551" s="2">
-        <v>40</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" s="3" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="B552" s="1">
-        <v>2.2999999999999998</v>
+        <v>4.68</v>
       </c>
       <c r="C552" s="2">
-        <v>40.4</v>
+        <v>44.1</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" s="3" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="B553" s="1">
-        <v>1.92</v>
+        <v>4.59</v>
       </c>
       <c r="C553" s="2">
-        <v>41.9</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" s="3" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="B554" s="1">
-        <v>2.12</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="C554" s="2">
-        <v>38.6</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" s="3" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="B555" s="1">
-        <v>4.12</v>
+        <v>5.51</v>
       </c>
       <c r="C555" s="2">
-        <v>41.1</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" s="3" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="B556" s="1">
-        <v>3.75</v>
+        <v>5.27</v>
       </c>
       <c r="C556" s="2">
-        <v>44.1</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" s="3" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="B557" s="1">
-        <v>3.77</v>
+        <v>2.19</v>
       </c>
       <c r="C557" s="2">
-        <v>45.5</v>
+        <v>39.700000000000003</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" s="3" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="B558" s="1">
-        <v>3.63</v>
+        <v>1.78</v>
       </c>
       <c r="C558" s="2">
-        <v>45.2</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" s="3" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="B559" s="1">
-        <v>4.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C559" s="2">
-        <v>44.9</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" s="3" t="s">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="B560" s="1">
-        <v>3.87</v>
+        <v>1.77</v>
       </c>
       <c r="C560" s="2">
-        <v>44.5</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" s="3" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="B561" s="1">
-        <v>3.85</v>
+        <v>1.84</v>
       </c>
       <c r="C561" s="2">
-        <v>45.7</v>
+        <v>43.3</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" s="3" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="B562" s="1">
-        <v>3.75</v>
+        <v>2.31</v>
       </c>
       <c r="C562" s="2">
-        <v>40.299999999999997</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" s="3" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="B563" s="1">
-        <v>4.1900000000000004</v>
+        <v>1.04</v>
       </c>
       <c r="C563" s="2">
-        <v>44.8</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" s="3" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="B564" s="1">
-        <v>3.84</v>
+        <v>2.23</v>
       </c>
       <c r="C564" s="2">
-        <v>44</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" s="3" t="s">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="B565" s="1">
-        <v>2.2599999999999998</v>
+        <v>2.16</v>
       </c>
       <c r="C565" s="2">
-        <v>25.8</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" s="3" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="B566" s="1">
-        <v>2.99</v>
+        <v>2.71</v>
       </c>
       <c r="C566" s="2">
-        <v>42.4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" s="3" t="s">
-        <v>543</v>
+        <v>569</v>
       </c>
       <c r="B567" s="1">
-        <v>2.68</v>
+        <v>3.06</v>
       </c>
       <c r="C567" s="2">
-        <v>44.4</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="3" t="s">
-        <v>544</v>
+        <v>570</v>
       </c>
       <c r="B568" s="1">
-        <v>2.72</v>
+        <v>2.91</v>
       </c>
       <c r="C568" s="2">
-        <v>44.1</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="3" t="s">
-        <v>545</v>
+        <v>571</v>
       </c>
       <c r="B569" s="1">
-        <v>2.9</v>
+        <v>3.36</v>
       </c>
       <c r="C569" s="2">
-        <v>33</v>
+        <v>38.700000000000003</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" s="3" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
       <c r="B570" s="1">
-        <v>2.89</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C570" s="2">
-        <v>39.700000000000003</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" s="3" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="B571" s="1">
-        <v>2.73</v>
+        <v>1.41</v>
       </c>
       <c r="C571" s="2">
-        <v>32.799999999999997</v>
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" s="3" t="s">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="B572" s="1">
-        <v>2.66</v>
+        <v>1.37</v>
       </c>
       <c r="C572" s="2">
-        <v>31.9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" s="3" t="s">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="B573" s="1">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="C573" s="2">
-        <v>36.1</v>
+        <v>43.6</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" s="3" t="s">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="B574" s="1">
-        <v>2.69</v>
+        <v>2.21</v>
       </c>
       <c r="C574" s="2">
-        <v>41.8</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" s="3" t="s">
-        <v>550</v>
+        <v>577</v>
       </c>
       <c r="B575" s="1">
-        <v>4.67</v>
+        <v>2.09</v>
       </c>
       <c r="C575" s="2">
-        <v>41.8</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" s="3" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="B576" s="1">
-        <v>4.88</v>
+        <v>1.93</v>
       </c>
       <c r="C576" s="2">
-        <v>43.4</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" s="3" t="s">
-        <v>552</v>
+        <v>579</v>
       </c>
       <c r="B577" s="1">
-        <v>4.83</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C577" s="2">
-        <v>43.9</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" s="3" t="s">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="B578" s="1">
-        <v>5.31</v>
+        <v>2.59</v>
       </c>
       <c r="C578" s="2">
-        <v>45.1</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" s="3" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="B579" s="1">
-        <v>4.9000000000000004</v>
+        <v>2.97</v>
       </c>
       <c r="C579" s="2">
-        <v>44.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" s="3" t="s">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="B580" s="1">
-        <v>4.68</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="C580" s="2">
-        <v>44.1</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" s="3" t="s">
-        <v>556</v>
+        <v>583</v>
       </c>
       <c r="B581" s="1">
-        <v>4.59</v>
+        <v>2.8</v>
       </c>
       <c r="C581" s="2">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" s="3" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="B582" s="1">
-        <v>4.8099999999999996</v>
+        <v>2.91</v>
       </c>
       <c r="C582" s="2">
-        <v>43.4</v>
+        <v>33.799999999999997</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" s="3" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="B583" s="1">
-        <v>5.51</v>
+        <v>2.71</v>
       </c>
       <c r="C583" s="2">
-        <v>44.9</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" s="3" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
       <c r="B584" s="1">
-        <v>5.27</v>
+        <v>2.67</v>
       </c>
       <c r="C584" s="2">
-        <v>43.9</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" s="3" t="s">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="B585" s="1">
-        <v>2.19</v>
+        <v>3.08</v>
       </c>
       <c r="C585" s="2">
-        <v>39.700000000000003</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" s="3" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="B586" s="1">
-        <v>1.78</v>
+        <v>3.03</v>
       </c>
       <c r="C586" s="2">
-        <v>43.2</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" s="3" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="B587" s="1">
-        <v>2.0499999999999998</v>
+        <v>2.84</v>
       </c>
       <c r="C587" s="2">
-        <v>42.2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" s="3" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="B588" s="1">
-        <v>1.77</v>
+        <v>3.72</v>
       </c>
       <c r="C588" s="2">
-        <v>43.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" s="3" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="B589" s="1">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="C589" s="2">
-        <v>43.3</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" s="3" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="B590" s="1">
-        <v>2.31</v>
+        <v>3.51</v>
       </c>
       <c r="C590" s="2">
-        <v>40.6</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" s="3" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
       <c r="B591" s="1">
-        <v>1.04</v>
+        <v>3.34</v>
       </c>
       <c r="C591" s="2">
-        <v>27.3</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" s="3" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="B592" s="1">
-        <v>2.2200000000000002</v>
+        <v>2.83</v>
       </c>
       <c r="C592" s="2">
-        <v>41.3</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" s="3" t="s">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="B593" s="1">
-        <v>2.23</v>
+        <v>3.82</v>
       </c>
       <c r="C593" s="2">
-        <v>41.4</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" s="3" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
       <c r="B594" s="1">
-        <v>2.16</v>
+        <v>2.75</v>
       </c>
       <c r="C594" s="2">
-        <v>41.5</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" s="3" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
       <c r="B595" s="1">
-        <v>2.71</v>
+        <v>4.49</v>
       </c>
       <c r="C595" s="2">
-        <v>44</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" s="3" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
       <c r="B596" s="1">
-        <v>3.06</v>
+        <v>5.3</v>
       </c>
       <c r="C596" s="2">
-        <v>37.6</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" s="3" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
       <c r="B597" s="1">
-        <v>2.91</v>
+        <v>5.17</v>
       </c>
       <c r="C597" s="2">
-        <v>37.4</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" s="3" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
       <c r="B598" s="1">
-        <v>3.36</v>
+        <v>4.17</v>
       </c>
       <c r="C598" s="2">
-        <v>38.700000000000003</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" s="3" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="B599" s="1">
-        <v>2.2400000000000002</v>
+        <v>5.22</v>
       </c>
       <c r="C599" s="2">
-        <v>37.1</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" s="3" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="B600" s="1">
-        <v>1.41</v>
+        <v>3.87</v>
       </c>
       <c r="C600" s="2">
-        <v>38.200000000000003</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" s="3" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
       <c r="B601" s="1">
-        <v>1.37</v>
+        <v>4.32</v>
       </c>
       <c r="C601" s="2">
-        <v>44</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" s="3" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
       <c r="B602" s="1">
-        <v>2.25</v>
+        <v>5.3</v>
       </c>
       <c r="C602" s="2">
-        <v>43.6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" s="3" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
       <c r="B603" s="1">
-        <v>2.21</v>
+        <v>3.85</v>
       </c>
       <c r="C603" s="2">
-        <v>41.5</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" s="3" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
       <c r="B604" s="1">
-        <v>2.09</v>
+        <v>2.72</v>
       </c>
       <c r="C604" s="2">
-        <v>40.4</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" s="3" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="B605" s="1">
-        <v>1.93</v>
+        <v>4.16</v>
       </c>
       <c r="C605" s="2">
-        <v>43.8</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" s="3" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
       <c r="B606" s="1">
-        <v>2.0499999999999998</v>
+        <v>4.29</v>
       </c>
       <c r="C606" s="2">
-        <v>45.1</v>
+        <v>39.299999999999997</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" s="3" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
       <c r="B607" s="1">
         <v>2.59</v>
       </c>
       <c r="C607" s="2">
-        <v>43.5</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" s="3" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
       <c r="B608" s="1">
-        <v>2.97</v>
+        <v>4</v>
       </c>
       <c r="C608" s="2">
-        <v>40</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" s="3" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="B609" s="1">
-        <v>2.5299999999999998</v>
+        <v>3.64</v>
       </c>
       <c r="C609" s="2">
-        <v>42.7</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" s="3" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
       <c r="B610" s="1">
-        <v>2.8</v>
+        <v>4.18</v>
       </c>
       <c r="C610" s="2">
-        <v>43.5</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" s="3" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="B611" s="1">
-        <v>2.91</v>
+        <v>0.498</v>
       </c>
       <c r="C611" s="2">
-        <v>33.799999999999997</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" s="3" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="B612" s="1">
-        <v>2.71</v>
+        <v>3.8</v>
       </c>
       <c r="C612" s="2">
-        <v>40.299999999999997</v>
+        <v>36.299999999999997</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" s="3" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
       <c r="B613" s="1">
-        <v>2.66</v>
+        <v>2.93</v>
       </c>
       <c r="C613" s="2">
-        <v>42.4</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" s="3" t="s">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="B614" s="1">
-        <v>2.67</v>
+        <v>3.78</v>
       </c>
       <c r="C614" s="2">
-        <v>42.4</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" s="3" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="B615" s="1">
-        <v>3.08</v>
+        <v>2.7</v>
       </c>
       <c r="C615" s="2">
-        <v>40.5</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" s="3" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
       <c r="B616" s="1">
-        <v>3.03</v>
+        <v>3.85</v>
       </c>
       <c r="C616" s="2">
-        <v>38.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" s="3" t="s">
-        <v>590</v>
+        <v>305</v>
       </c>
       <c r="B617" s="1">
-        <v>2.84</v>
+        <v>2.71</v>
       </c>
       <c r="C617" s="2">
-        <v>35</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" s="3" t="s">
-        <v>591</v>
+        <v>56</v>
       </c>
       <c r="B618" s="1">
-        <v>3.72</v>
+        <v>3.11</v>
       </c>
       <c r="C618" s="2">
-        <v>35</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" s="3" t="s">
-        <v>592</v>
+        <v>347</v>
       </c>
       <c r="B619" s="1">
-        <v>2.06</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C619" s="2">
-        <v>19.3</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" s="3" t="s">
-        <v>593</v>
+        <v>394</v>
       </c>
       <c r="B620" s="1">
-        <v>3.51</v>
+        <v>3.21</v>
       </c>
       <c r="C620" s="2">
-        <v>32.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" s="3" t="s">
-        <v>594</v>
+        <v>154</v>
       </c>
       <c r="B621" s="1">
-        <v>3.34</v>
+        <v>5.2</v>
       </c>
       <c r="C621" s="2">
-        <v>30.8</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" s="3" t="s">
-        <v>595</v>
+        <v>195</v>
       </c>
       <c r="B622" s="1">
-        <v>2.83</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="C622" s="2">
-        <v>29.7</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" s="3" t="s">
-        <v>596</v>
+        <v>213</v>
       </c>
       <c r="B623" s="1">
-        <v>3.82</v>
+        <v>3.99</v>
       </c>
       <c r="C623" s="2">
-        <v>49.1</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A624" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="B624" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="C624" s="2">
-        <v>24.6</v>
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A624" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B624" s="5">
+        <v>3.56</v>
+      </c>
+      <c r="C624" s="6">
+        <v>44.3</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" s="3" t="s">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="B625" s="1">
-        <v>4.49</v>
+        <v>2.5274999999999999</v>
       </c>
       <c r="C625" s="2">
-        <v>46.1</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" s="3" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
       <c r="B626" s="1">
-        <v>5.3</v>
+        <v>4.18</v>
       </c>
       <c r="C626" s="2">
-        <v>48.7</v>
+        <v>49.024999999999999</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" s="3" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="B627" s="1">
-        <v>5.17</v>
+        <v>2.5274999999999999</v>
       </c>
       <c r="C627" s="2">
-        <v>49.4</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" s="3" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="B628" s="1">
-        <v>4.17</v>
+        <v>2.5274999999999999</v>
       </c>
       <c r="C628" s="2">
-        <v>42.4</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" s="3" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="B629" s="1">
-        <v>5.22</v>
+        <v>2.5274999999999999</v>
       </c>
       <c r="C629" s="2">
-        <v>48.6</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" s="3" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="B630" s="1">
-        <v>3.87</v>
+        <v>4.18</v>
       </c>
       <c r="C630" s="2">
-        <v>49.8</v>
+        <v>49.024999999999999</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" s="3" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="B631" s="1">
-        <v>4.32</v>
+        <v>4.18</v>
       </c>
       <c r="C631" s="2">
-        <v>45.6</v>
+        <v>49.024999999999999</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" s="3" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="B632" s="1">
-        <v>5.3</v>
+        <v>4.18</v>
       </c>
       <c r="C632" s="2">
-        <v>49</v>
+        <v>49.024999999999999</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" s="3" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="B633" s="1">
-        <v>3.85</v>
+        <v>1.9650000000000001</v>
       </c>
       <c r="C633" s="2">
-        <v>43.9</v>
+        <v>42.524999999999999</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" s="3" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="B634" s="1">
-        <v>3.03</v>
+        <v>1.9650000000000001</v>
       </c>
       <c r="C634" s="2">
-        <v>31.5</v>
+        <v>42.524999999999999</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" s="3" t="s">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="B635" s="1">
-        <v>2.41</v>
+        <v>1.9650000000000001</v>
       </c>
       <c r="C635" s="2">
-        <v>24.7</v>
+        <v>42.524999999999999</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" s="3" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="B636" s="1">
-        <v>4.16</v>
+        <v>1.9650000000000001</v>
       </c>
       <c r="C636" s="2">
-        <v>45.6</v>
+        <v>42.524999999999999</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" s="3" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="B637" s="1">
-        <v>4.29</v>
+        <v>3.4849999999999999</v>
       </c>
       <c r="C637" s="2">
-        <v>39.299999999999997</v>
+        <v>46.825000000000003</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" s="3" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="B638" s="1">
-        <v>2.59</v>
+        <v>3.4849999999999999</v>
       </c>
       <c r="C638" s="2">
-        <v>23.8</v>
+        <v>46.825000000000003</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" s="3" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
       <c r="B639" s="1">
-        <v>4</v>
+        <v>3.4849999999999999</v>
       </c>
       <c r="C639" s="2">
-        <v>48.8</v>
+        <v>46.825000000000003</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" s="3" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="B640" s="1">
-        <v>3.64</v>
+        <v>3.4849999999999999</v>
       </c>
       <c r="C640" s="2">
-        <v>43.2</v>
+        <v>46.825000000000003</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" s="3" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="B641" s="1">
-        <v>4.18</v>
+        <v>4.25</v>
       </c>
       <c r="C641" s="2">
-        <v>47.1</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" s="3" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="B642" s="1">
-        <v>0.498</v>
+        <v>4.25</v>
       </c>
       <c r="C642" s="2">
-        <v>3.97</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" s="3" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
       <c r="B643" s="1">
-        <v>3.8</v>
+        <v>4.25</v>
       </c>
       <c r="C643" s="2">
-        <v>36.299999999999997</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" s="3" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="B644" s="1">
-        <v>2.93</v>
+        <v>4.25</v>
       </c>
       <c r="C644" s="2">
-        <v>28.4</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" s="3" t="s">
-        <v>617</v>
+        <v>644</v>
       </c>
       <c r="B645" s="1">
-        <v>3.78</v>
+        <v>3.6074999999999999</v>
       </c>
       <c r="C645" s="2">
-        <v>49.2</v>
+        <v>47.375</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" s="3" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="B646" s="1">
-        <v>2.7</v>
+        <v>3.6074999999999999</v>
       </c>
       <c r="C646" s="2">
-        <v>26.4</v>
+        <v>47.375</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" s="3" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="B647" s="1">
-        <v>3.85</v>
+        <v>2.665</v>
       </c>
       <c r="C647" s="2">
-        <v>49.5</v>
+        <v>43.15</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" s="3" t="s">
-        <v>306</v>
+        <v>647</v>
       </c>
       <c r="B648" s="1">
-        <v>2.71</v>
+        <v>2.665</v>
       </c>
       <c r="C648" s="2">
-        <v>37.700000000000003</v>
+        <v>43.15</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" s="3" t="s">
-        <v>57</v>
+        <v>648</v>
       </c>
       <c r="B649" s="1">
-        <v>3.11</v>
+        <v>2.665</v>
       </c>
       <c r="C649" s="2">
-        <v>38.6</v>
+        <v>43.15</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" s="3" t="s">
-        <v>348</v>
+        <v>649</v>
       </c>
       <c r="B650" s="1">
-        <v>2.5499999999999998</v>
+        <v>2.665</v>
       </c>
       <c r="C650" s="2">
-        <v>37.700000000000003</v>
+        <v>43.15</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" s="3" t="s">
-        <v>395</v>
+        <v>650</v>
       </c>
       <c r="B651" s="1">
-        <v>3.21</v>
+        <v>2.665</v>
       </c>
       <c r="C651" s="2">
-        <v>36</v>
+        <v>43.15</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" s="3" t="s">
-        <v>155</v>
+        <v>651</v>
       </c>
       <c r="B652" s="1">
-        <v>5.2</v>
+        <v>2.665</v>
       </c>
       <c r="C652" s="2">
-        <v>49.7</v>
+        <v>43.15</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" s="3" t="s">
-        <v>196</v>
+        <v>652</v>
       </c>
       <c r="B653" s="1">
-        <v>4.63</v>
+        <v>3.97</v>
       </c>
       <c r="C653" s="2">
-        <v>46.6</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" s="3" t="s">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="B654" s="1">
-        <v>4.58</v>
+        <v>3.97</v>
       </c>
       <c r="C654" s="2">
-        <v>45.6</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" s="3" t="s">
-        <v>214</v>
+        <v>654</v>
       </c>
       <c r="B655" s="1">
-        <v>3.99</v>
+        <v>3.97</v>
       </c>
       <c r="C655" s="2">
-        <v>38.6</v>
-      </c>
-    </row>
-    <row r="656" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="B656" s="5">
-        <v>3.56</v>
-      </c>
-      <c r="C656" s="6">
-        <v>44.3</v>
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A656" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B656" s="1">
+        <v>3.97</v>
+      </c>
+      <c r="C656" s="2">
+        <v>46.8</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" s="3" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B657" s="1">
-        <v>2.5274999999999999</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C657" s="2">
-        <v>41.9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" s="3" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B658" s="1">
-        <v>4.18</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C658" s="2">
-        <v>49.024999999999999</v>
+        <v>44</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" s="3" t="s">
-        <v>627</v>
+        <v>658</v>
       </c>
       <c r="B659" s="1">
-        <v>2.5274999999999999</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C659" s="2">
-        <v>41.9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" s="3" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="B660" s="1">
-        <v>2.5274999999999999</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C660" s="2">
-        <v>41.9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" s="3" t="s">
-        <v>629</v>
+        <v>659</v>
       </c>
       <c r="B661" s="1">
-        <v>2.5274999999999999</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C661" s="2">
-        <v>41.9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" s="3" t="s">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="B662" s="1">
-        <v>4.18</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C662" s="2">
-        <v>49.024999999999999</v>
+        <v>44</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" s="3" t="s">
-        <v>631</v>
+        <v>661</v>
       </c>
       <c r="B663" s="1">
-        <v>4.18</v>
+        <v>4.1230000000000002</v>
       </c>
       <c r="C663" s="2">
-        <v>49.024999999999999</v>
+        <v>47.93</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" s="3" t="s">
-        <v>632</v>
+        <v>668</v>
       </c>
       <c r="B664" s="1">
-        <v>4.18</v>
+        <v>4.1230000000000002</v>
       </c>
       <c r="C664" s="2">
-        <v>49.024999999999999</v>
+        <v>47.93</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" s="3" t="s">
-        <v>633</v>
+        <v>662</v>
       </c>
       <c r="B665" s="1">
-        <v>1.9650000000000001</v>
+        <v>4.1230000000000002</v>
       </c>
       <c r="C665" s="2">
-        <v>42.524999999999999</v>
+        <v>47.93</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" s="3" t="s">
-        <v>634</v>
+        <v>663</v>
       </c>
       <c r="B666" s="1">
-        <v>1.9650000000000001</v>
+        <v>4.1230000000000002</v>
       </c>
       <c r="C666" s="2">
-        <v>42.524999999999999</v>
+        <v>47.93</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" s="3" t="s">
-        <v>635</v>
+        <v>664</v>
       </c>
       <c r="B667" s="1">
-        <v>1.9650000000000001</v>
+        <v>4.1230000000000002</v>
       </c>
       <c r="C667" s="2">
-        <v>42.524999999999999</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A668" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="B668" s="1">
-        <v>1.9650000000000001</v>
-      </c>
-      <c r="C668" s="2">
-        <v>42.524999999999999</v>
-      </c>
-    </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A669" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="B669" s="1">
-        <v>3.4849999999999999</v>
-      </c>
-      <c r="C669" s="2">
-        <v>46.825000000000003</v>
-      </c>
-    </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A670" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B670" s="1">
-        <v>3.4849999999999999</v>
-      </c>
-      <c r="C670" s="2">
-        <v>46.825000000000003</v>
-      </c>
-    </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A671" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="B671" s="1">
-        <v>3.4849999999999999</v>
-      </c>
-      <c r="C671" s="2">
-        <v>46.825000000000003</v>
-      </c>
-    </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A672" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="B672" s="1">
-        <v>3.4849999999999999</v>
-      </c>
-      <c r="C672" s="2">
-        <v>46.825000000000003</v>
-      </c>
-    </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A673" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="B673" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="C673" s="2">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A674" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="B674" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="C674" s="2">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A675" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="B675" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="C675" s="2">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A676" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="B676" s="1">
-        <v>4.25</v>
-      </c>
-      <c r="C676" s="2">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A677" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="B677" s="1">
-        <v>3.6074999999999999</v>
-      </c>
-      <c r="C677" s="2">
-        <v>47.375</v>
-      </c>
-    </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A678" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="B678" s="1">
-        <v>3.6074999999999999</v>
-      </c>
-      <c r="C678" s="2">
-        <v>47.375</v>
-      </c>
-    </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A679" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B679" s="1">
-        <v>2.665</v>
-      </c>
-      <c r="C679" s="2">
-        <v>43.15</v>
-      </c>
-    </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A680" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="B680" s="1">
-        <v>2.665</v>
-      </c>
-      <c r="C680" s="2">
-        <v>43.15</v>
-      </c>
-    </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A681" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="B681" s="1">
-        <v>2.665</v>
-      </c>
-      <c r="C681" s="2">
-        <v>43.15</v>
-      </c>
-    </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A682" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="B682" s="1">
-        <v>2.665</v>
-      </c>
-      <c r="C682" s="2">
-        <v>43.15</v>
-      </c>
-    </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A683" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="B683" s="1">
-        <v>2.665</v>
-      </c>
-      <c r="C683" s="2">
-        <v>43.15</v>
-      </c>
-    </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A684" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="B684" s="1">
-        <v>2.665</v>
-      </c>
-      <c r="C684" s="2">
-        <v>43.15</v>
-      </c>
-    </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A685" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="B685" s="1">
-        <v>3.97</v>
-      </c>
-      <c r="C685" s="2">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A686" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="B686" s="1">
-        <v>3.97</v>
-      </c>
-      <c r="C686" s="2">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A687" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B687" s="1">
-        <v>3.97</v>
-      </c>
-      <c r="C687" s="2">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A688" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="B688" s="1">
-        <v>3.97</v>
-      </c>
-      <c r="C688" s="2">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A689" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="B689" s="1">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="C689" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A690" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="B690" s="1">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="C690" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A691" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="B691" s="1">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="C691" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A692" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="B692" s="1">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="C692" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A693" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="B693" s="1">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="C693" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A694" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="B694" s="1">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="C694" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A695" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="B695" s="1">
-        <v>4.1230000000000002</v>
-      </c>
-      <c r="C695" s="2">
-        <v>47.93</v>
-      </c>
-    </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A696" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="B696" s="1">
-        <v>4.1230000000000002</v>
-      </c>
-      <c r="C696" s="2">
-        <v>47.93</v>
-      </c>
-    </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A697" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="B697" s="1">
-        <v>4.1230000000000002</v>
-      </c>
-      <c r="C697" s="2">
-        <v>47.93</v>
-      </c>
-    </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A698" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="B698" s="1">
-        <v>4.1230000000000002</v>
-      </c>
-      <c r="C698" s="2">
-        <v>47.93</v>
-      </c>
-    </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A699" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="B699" s="1">
-        <v>4.1230000000000002</v>
-      </c>
-      <c r="C699" s="2">
         <v>47.93</v>
       </c>
     </row>
@@ -10624,25 +10269,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12a57a94-3426-4524-8b8a-967e28c44898">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010057E7F401722ED14286B30E4150AB2995" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b27f0e8a88c9b2ea8d7328e121d12dff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12a57a94-3426-4524-8b8a-967e28c44898" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5515aa80e411e665438ee9d45cfa022" ns2:_="">
     <xsd:import namespace="12a57a94-3426-4524-8b8a-967e28c44898"/>
@@ -10826,25 +10452,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D94D4AE-9339-4823-A300-1929BA722A3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12a57a94-3426-4524-8b8a-967e28c44898"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9A9C6-ADCA-4A9D-9664-66F791D896DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12a57a94-3426-4524-8b8a-967e28c44898">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4388CCBA-E123-432A-A7A5-E3E12CCDD724}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10860,4 +10487,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9A9C6-ADCA-4A9D-9664-66F791D896DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D94D4AE-9339-4823-A300-1929BA722A3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12a57a94-3426-4524-8b8a-967e28c44898"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/usda carbon nitrogen data.xlsx
+++ b/data/usda carbon nitrogen data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RyanMeyer/Documents/R Projects/2023_nrec_decomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64EC621E-BC95-4246-80B1-F23507C96ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4728DE6-AFBE-564E-996E-EAE2727AB26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2913,8 +2913,8 @@
   <dimension ref="A1:C667"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A618" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D626" sqref="D626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/usda carbon nitrogen data.xlsx
+++ b/data/usda carbon nitrogen data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RyanMeyer/Documents/R Projects/2023_nrec_decomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4728DE6-AFBE-564E-996E-EAE2727AB26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7887696D-0AFE-9E4D-9FAA-70A3478C9903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2913,8 +2913,8 @@
   <dimension ref="A1:C667"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A618" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D626" sqref="D626"/>
+      <pane ySplit="1" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B525" sqref="B525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8683,7 +8683,7 @@
         <v>526</v>
       </c>
       <c r="B524" s="1">
-        <v>1.81</v>
+        <v>2.81</v>
       </c>
       <c r="C524" s="2">
         <v>39.700000000000003</v>
@@ -9112,10 +9112,10 @@
         <v>565</v>
       </c>
       <c r="B563" s="1">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="C563" s="2">
-        <v>27.3</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -10269,6 +10269,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12a57a94-3426-4524-8b8a-967e28c44898">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010057E7F401722ED14286B30E4150AB2995" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b27f0e8a88c9b2ea8d7328e121d12dff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12a57a94-3426-4524-8b8a-967e28c44898" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5515aa80e411e665438ee9d45cfa022" ns2:_="">
     <xsd:import namespace="12a57a94-3426-4524-8b8a-967e28c44898"/>
@@ -10452,26 +10471,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D94D4AE-9339-4823-A300-1929BA722A3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12a57a94-3426-4524-8b8a-967e28c44898"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12a57a94-3426-4524-8b8a-967e28c44898">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9A9C6-ADCA-4A9D-9664-66F791D896DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4388CCBA-E123-432A-A7A5-E3E12CCDD724}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10487,22 +10505,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9A9C6-ADCA-4A9D-9664-66F791D896DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D94D4AE-9339-4823-A300-1929BA722A3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="12a57a94-3426-4524-8b8a-967e28c44898"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/usda carbon nitrogen data.xlsx
+++ b/data/usda carbon nitrogen data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RyanMeyer/Documents/R Projects/2023_nrec_decomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7887696D-0AFE-9E4D-9FAA-70A3478C9903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DF8AAA-45F8-5A4B-A7C7-A047AB68545E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2913,8 +2913,8 @@
   <dimension ref="A1:C667"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B525" sqref="B525"/>
+      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C447" sqref="C447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7828,7 +7828,7 @@
         <v>2.12</v>
       </c>
       <c r="C446" s="2">
-        <v>52.9</v>
+        <v>42.9</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/usda carbon nitrogen data.xlsx
+++ b/data/usda carbon nitrogen data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RyanMeyer/Documents/R Projects/2023_nrec_decomp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DF8AAA-45F8-5A4B-A7C7-A047AB68545E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242E3511-98A6-AB4B-B359-C88D56243CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2913,8 +2913,8 @@
   <dimension ref="A1:C667"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C447" sqref="C447"/>
+      <pane ySplit="1" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C564" sqref="C564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9115,7 +9115,7 @@
         <v>2.04</v>
       </c>
       <c r="C563" s="2">
-        <v>47.3</v>
+        <v>37.299999999999997</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
